--- a/src/main/resources/outputs/f2_d1_new.xlsx
+++ b/src/main/resources/outputs/f2_d1_new.xlsx
@@ -2,21 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\tinyGPDataGenerator\src\main\resources\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdjur\Documents\Programowanie\Intellij\Programowanie Genetyczne\tinyGPDataGenerator\src\main\resources\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC091D6-8EF1-4AF7-B444-7F19D82571C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF41BF0-2340-47C5-AB7E-2DE37DE14779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="f2_d1" sheetId="1" r:id="rId1"/>
     <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -83,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -101,7 +114,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9281,10 +9294,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9612,12 +9625,12 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-3.14</v>
       </c>
@@ -9629,7 +9642,7 @@
         <v>-1.0015913846440263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-3.1337199999999998</v>
       </c>
@@ -9641,7 +9654,7 @@
         <v>-1.0078415830900567</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-3.12744</v>
       </c>
@@ -9653,7 +9666,7 @@
         <v>-1.0140520340072279</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3.1211600000000002</v>
       </c>
@@ -9665,7 +9678,7 @@
         <v>-1.0202224924660979</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.1148799999999999</v>
       </c>
@@ -9677,7 +9690,7 @@
         <v>-1.026352715114458</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-3.1086</v>
       </c>
@@ -9689,7 +9702,7 @@
         <v>-1.0324424601869291</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-3.1023200000000002</v>
       </c>
@@ -9701,7 +9714,7 @@
         <v>-1.038491487514499</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-3.0960399999999999</v>
       </c>
@@ -9713,7 +9726,7 @@
         <v>-1.0444995585339925</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-3.0897600000000001</v>
       </c>
@@ -9725,7 +9738,7 @@
         <v>-1.0504664362974796</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-3.0834800000000002</v>
       </c>
@@ -9737,7 +9750,7 @@
         <v>-1.0563918854816221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3.0771999999999999</v>
       </c>
@@ -9749,7 +9762,7 @@
         <v>-1.0622756723969533</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-3.0709200000000001</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>-1.0681175649970933</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-3.0646399999999998</v>
       </c>
@@ -9773,7 +9786,7 @@
         <v>-1.0739173328879028</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-3.05836</v>
       </c>
@@ -9785,7 +9798,7 @@
         <v>-1.0796747473365667</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-3.0520800000000001</v>
       </c>
@@ -9797,7 +9810,7 @@
         <v>-1.0853895812806178</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-3.0457999999999998</v>
       </c>
@@ -9809,7 +9822,7 @@
         <v>-1.0910616093368903</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.03952</v>
       </c>
@@ -9821,7 +9834,7 @@
         <v>-1.0966906078104071</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.0332400000000002</v>
       </c>
@@ -9833,7 +9846,7 @@
         <v>-1.1022763547032048</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.0269599999999999</v>
       </c>
@@ -9845,7 +9858,7 @@
         <v>-1.1078186297230876</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.02068</v>
       </c>
@@ -9857,7 +9870,7 @@
         <v>-1.113317214292314</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.0144000000000002</v>
       </c>
@@ -9869,7 +9882,7 @@
         <v>-1.1187718915562195</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-3.0081199999999999</v>
       </c>
@@ -9881,7 +9894,7 @@
         <v>-1.1241824463917673</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-3.0018400000000001</v>
       </c>
@@ -9893,7 +9906,7 @@
         <v>-1.1295486654160327</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.9955599999999998</v>
       </c>
@@ -9905,7 +9918,7 @@
         <v>-1.1348703369946189</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.9892799999999999</v>
       </c>
@@ -9917,7 +9930,7 @@
         <v>-1.140147251250003</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.9830000000000001</v>
       </c>
@@ -9929,7 +9942,7 @@
         <v>-1.1453792000698142</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.9767199999999998</v>
       </c>
@@ -9941,7 +9954,7 @@
         <v>-1.1505659771150407</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.97044</v>
       </c>
@@ -9953,7 +9966,7 @@
         <v>-1.1557073778281659</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.9641600000000001</v>
       </c>
@@ -9965,7 +9978,7 @@
         <v>-1.1608031994412389</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.9578799999999998</v>
       </c>
@@ -9977,7 +9990,7 @@
         <v>-1.1658532409838696</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.9516</v>
       </c>
@@ -9989,7 +10002,7 @@
         <v>-1.1708573032911531</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-2.9453200000000002</v>
       </c>
@@ -10001,7 +10014,7 @@
         <v>-1.1758151890115278</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.9390399999999999</v>
       </c>
@@ -10013,7 +10026,7 @@
         <v>-1.1807267026145563</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2.93276</v>
       </c>
@@ -10025,7 +10038,7 @@
         <v>-1.1855916503986363</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-2.9264800000000002</v>
       </c>
@@ -10037,7 +10050,7 @@
         <v>-1.1904098404986425</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2.9201999999999999</v>
       </c>
@@ -10049,7 +10062,7 @@
         <v>-1.195181082893491</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.9139200000000001</v>
       </c>
@@ -10061,7 +10074,7 @@
         <v>-1.1999051894136334</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.9076399999999998</v>
       </c>
@@ -10073,7 +10086,7 @@
         <v>-1.2045819737484802</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.9013599999999999</v>
       </c>
@@ -10085,7 +10098,7 @@
         <v>-1.2092112514537456</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-2.8950800000000001</v>
       </c>
@@ -10097,7 +10110,7 @@
         <v>-1.2137928399587243</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.8887999999999998</v>
       </c>
@@ -10109,7 +10122,7 @@
         <v>-1.2183265585734899</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2.88252</v>
       </c>
@@ -10121,7 +10134,7 @@
         <v>-1.2228122284960219</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.8762400000000001</v>
       </c>
@@ -10133,7 +10146,7 @@
         <v>-1.2272496728192566</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-2.8699599999999998</v>
       </c>
@@ -10145,7 +10158,7 @@
         <v>-1.2316387165380658</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2.86368</v>
       </c>
@@ -10157,7 +10170,7 @@
         <v>-1.2359791865561556</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-2.8574000000000002</v>
       </c>
@@ -10169,7 +10182,7 @@
         <v>-1.2402709116928963</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.8511199999999999</v>
       </c>
@@ -10181,7 +10194,7 @@
         <v>-1.244513722690072</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-2.84484</v>
       </c>
@@ -10193,7 +10206,7 @@
         <v>-1.2487074522185546</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-2.8385600000000002</v>
       </c>
@@ -10205,7 +10218,7 @@
         <v>-1.2528519348849054</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-2.8322799999999999</v>
       </c>
@@ -10217,7 +10230,7 @@
         <v>-1.2569470072378968</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.8260000000000001</v>
       </c>
@@ -10229,7 +10242,7 @@
         <v>-1.2609925077749571</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.8197199999999998</v>
       </c>
@@ -10241,7 +10254,7 @@
         <v>-1.2649882769485434</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8134399999999999</v>
       </c>
@@ -10253,7 +10266,7 @@
         <v>-1.26893415717243</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.8071600000000001</v>
       </c>
@@ -10265,7 +10278,7 @@
         <v>-1.2728299928279254</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.8008799999999998</v>
       </c>
@@ -10277,7 +10290,7 @@
         <v>-1.2766756302700106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.7946</v>
       </c>
@@ -10289,7 +10302,7 @@
         <v>-1.2804709178333955</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.7883200000000001</v>
       </c>
@@ -10301,7 +10314,7 @@
         <v>-1.2842157058385035</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.7820399999999998</v>
       </c>
@@ -10313,7 +10326,7 @@
         <v>-1.2879098465973726</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.77576</v>
       </c>
@@ -10325,7 +10338,7 @@
         <v>-1.2915531944194805</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.7694800000000002</v>
       </c>
@@ -10337,7 +10350,7 @@
         <v>-1.295145605617491</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-2.7631999999999999</v>
       </c>
@@ -10349,7 +10362,7 @@
         <v>-1.2986869385129198</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-2.7569200000000098</v>
       </c>
@@ -10361,7 +10374,7 @@
         <v>-1.3021770534417172</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.75064000000001</v>
       </c>
@@ -10373,7 +10386,7 @@
         <v>-1.3056158127597977</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.7443600000000101</v>
       </c>
@@ -10385,7 +10398,7 @@
         <v>-1.3090030808484363</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-2.7380800000000098</v>
       </c>
@@ -10397,7 +10410,7 @@
         <v>-1.3123387241196385</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-2.73180000000001</v>
       </c>
@@ -10409,7 +10422,7 @@
         <v>-1.3156226110214024</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-2.7255200000000102</v>
       </c>
@@ -10421,7 +10434,7 @@
         <v>-1.3188546120429088</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-2.7192400000000099</v>
       </c>
@@ -10433,7 +10446,7 @@
         <v>-1.3220345997196279</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-2.71296000000001</v>
       </c>
@@ -10445,7 +10458,7 @@
         <v>-1.3251624486383451</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-2.7066800000000102</v>
       </c>
@@ -10457,7 +10470,7 @@
         <v>-1.3282380354421095</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-2.7004000000000099</v>
       </c>
@@ -10469,7 +10482,7 @@
         <v>-1.3312612388350975</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-2.6941200000000101</v>
       </c>
@@ -10481,7 +10494,7 @@
         <v>-1.3342319395873954</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-2.6878400000000102</v>
       </c>
@@ -10493,7 +10506,7 @@
         <v>-1.3371500205397042</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-2.6815600000000099</v>
       </c>
@@ -10505,7 +10518,7 @@
         <v>-1.3400153666079586</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-2.6752800000000101</v>
       </c>
@@ -10517,7 +10530,7 @@
         <v>-1.3428278647878649</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-2.6690000000000098</v>
       </c>
@@ -10529,7 +10542,7 @@
         <v>-1.3455874041593598</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.66272000000001</v>
       </c>
@@ -10541,7 +10554,7 @@
         <v>-1.3482938758909835</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.6564400000000101</v>
       </c>
@@ -10553,7 +10566,7 @@
         <v>-1.350947173244172</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.6501600000000098</v>
       </c>
@@ -10565,7 +10578,7 @@
         <v>-1.3535471915774668</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.64388000000001</v>
       </c>
@@ -10577,7 +10590,7 @@
         <v>-1.3560938283506419</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.6376000000000102</v>
       </c>
@@ -10589,7 +10602,7 @@
         <v>-1.3585869831287476</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.6313200000000099</v>
       </c>
@@ -10601,7 +10614,7 @@
         <v>-1.361026557586072</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.62504000000001</v>
       </c>
@@ -10613,7 +10626,7 @@
         <v>-1.3634124555100176</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.6187600000000102</v>
       </c>
@@ -10625,7 +10638,7 @@
         <v>-1.3657445828048971</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.6124800000000099</v>
       </c>
@@ -10637,7 +10650,7 @@
         <v>-1.3680228474956437</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.6062000000000101</v>
       </c>
@@ -10649,7 +10662,7 @@
         <v>-1.3702471597314387</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-2.5999200000000098</v>
       </c>
@@ -10661,7 +10674,7 @@
         <v>-1.3724174317892543</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-2.5936400000000099</v>
       </c>
@@ -10673,7 +10686,7 @@
         <v>-1.3745335780773147</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-2.5873600000000101</v>
       </c>
@@ -10685,7 +10698,7 @@
         <v>-1.3765955151384701</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-2.5810800000000098</v>
       </c>
@@ -10697,7 +10710,7 @@
         <v>-1.3786031616534893</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-2.57480000000001</v>
       </c>
@@ -10709,7 +10722,7 @@
         <v>-1.3805564384442663</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-2.5685200000000101</v>
       </c>
@@ -10721,7 +10734,7 @@
         <v>-1.3824552684769427</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-2.5622400000000098</v>
       </c>
@@ -10733,7 +10746,7 @@
         <v>-1.3842995768649464</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-2.55596000000001</v>
       </c>
@@ -10745,7 +10758,7 @@
         <v>-1.3860892908719447</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-2.5496800000000102</v>
       </c>
@@ -10757,7 +10770,7 @@
         <v>-1.3878243399147121</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-2.5434000000000099</v>
       </c>
@@ -10769,7 +10782,7 @@
         <v>-1.3895046555659158</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-2.53712000000001</v>
       </c>
@@ -10781,7 +10794,7 @@
         <v>-1.3911301715568127</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-2.5308400000000102</v>
       </c>
@@ -10793,7 +10806,7 @@
         <v>-1.3927008237798637</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-2.5245600000000099</v>
       </c>
@@ -10805,7 +10818,7 @@
         <v>-1.3942165502912616</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-2.5182800000000101</v>
       </c>
@@ -10817,7 +10830,7 @@
         <v>-1.3956772913133746</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-2.5120000000000098</v>
       </c>
@@ -10829,7 +10842,7 @@
         <v>-1.3970829892371031</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-2.5057200000000099</v>
       </c>
@@ -10841,7 +10854,7 @@
         <v>-1.3984335886241523</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-2.4994400000000101</v>
       </c>
@@ -10853,7 +10866,7 @@
         <v>-1.399729036209219</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-2.4931600000000098</v>
       </c>
@@ -10865,7 +10878,7 @@
         <v>-1.4009692809020899</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>-2.48688000000001</v>
       </c>
@@ -10877,7 +10890,7 @@
         <v>-1.4021542737896606</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-2.4806000000000101</v>
       </c>
@@ -10889,7 +10902,7 @@
         <v>-1.4032839681378606</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-2.4743200000000098</v>
       </c>
@@ -10901,7 +10914,7 @@
         <v>-1.4043583193934988</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-2.46804000000001</v>
       </c>
@@ -10913,7 +10926,7 @@
         <v>-1.40537728518602</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-2.4617600000000102</v>
       </c>
@@ -10925,7 +10938,7 @@
         <v>-1.4063408253291756</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-2.4554800000000099</v>
       </c>
@@ -10937,7 +10950,7 @@
         <v>-1.4072489018226091</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>-2.44920000000001</v>
       </c>
@@ -10949,7 +10962,7 @@
         <v>-1.4081014788533541</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>-2.4429200000000102</v>
       </c>
@@ -10961,7 +10974,7 @@
         <v>-1.4088985227972475</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>-2.4366400000000099</v>
       </c>
@@ -10973,7 +10986,7 @@
         <v>-1.4096400022202542</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>-2.4303600000000101</v>
       </c>
@@ -10985,7 +10998,7 @@
         <v>-1.4103258878797085</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>-2.4240800000000098</v>
       </c>
@@ -10997,7 +11010,7 @@
         <v>-1.4109561527254662</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>-2.4178000000000099</v>
       </c>
@@ -11009,7 +11022,7 @@
         <v>-1.411530771900972</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>-2.4115200000000101</v>
       </c>
@@ -11021,7 +11034,7 @@
         <v>-1.4120497227442392</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>-2.4052400000000098</v>
       </c>
@@ -11033,7 +11046,7 @@
         <v>-1.4125129847887448</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>-2.39896000000001</v>
       </c>
@@ -11045,7 +11058,7 @@
         <v>-1.4129205397642344</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>-2.3926800000000101</v>
       </c>
@@ -11057,7 +11070,7 @@
         <v>-1.4132723715974449</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>-2.3864000000000098</v>
       </c>
@@ -11069,7 +11082,7 @@
         <v>-1.4135684664127375</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>-2.38012000000001</v>
       </c>
@@ -11081,7 +11094,7 @@
         <v>-1.4138088125326442</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>-2.3738400000000102</v>
       </c>
@@ -11093,7 +11106,7 @@
         <v>-1.4139934004783306</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>-2.3675600000000099</v>
       </c>
@@ -11105,7 +11118,7 @@
         <v>-1.4141222229699668</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>-2.3612800000000198</v>
       </c>
@@ -11117,7 +11130,7 @@
         <v>-1.4141952749270166</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>-2.35500000000002</v>
       </c>
@@ -11129,7 +11142,7 @@
         <v>-1.4142125534684373</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>-2.3487200000000201</v>
       </c>
@@ -11141,7 +11154,7 @@
         <v>-1.4141740579127933</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>-2.3424400000000198</v>
       </c>
@@ -11153,7 +11166,7 @@
         <v>-1.4140797897782824</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>-2.33616000000002</v>
       </c>
@@ -11165,7 +11178,7 @@
         <v>-1.4139297527826771</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>-2.3298800000000202</v>
       </c>
@@ -11177,7 +11190,7 @@
         <v>-1.4137239528431766</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>-2.3236000000000199</v>
       </c>
@@ -11189,7 +11202,7 @@
         <v>-1.4134623980761747</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>-2.31732000000002</v>
       </c>
@@ -11201,7 +11214,7 @@
         <v>-1.4131450987969392</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>-2.3110400000000202</v>
       </c>
@@ -11213,7 +11226,7 @@
         <v>-1.4127720675192048</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>-2.3047600000000199</v>
       </c>
@@ -11225,7 +11238,7 @@
         <v>-1.4123433189546797</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>-2.2984800000000201</v>
       </c>
@@ -11237,7 +11250,7 @@
         <v>-1.4118588700124659</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>-2.2922000000000202</v>
       </c>
@@ -11249,7 +11262,7 @@
         <v>-1.4113187397983917</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>-2.2859200000000199</v>
       </c>
@@ -11261,7 +11274,7 @@
         <v>-1.4107229496142586</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>-2.2796400000000201</v>
       </c>
@@ -11273,7 +11286,7 @@
         <v>-1.4100715229570007</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>-2.2733600000000198</v>
       </c>
@@ -11285,7 +11298,7 @@
         <v>-1.4093644855177589</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>-2.26708000000002</v>
       </c>
@@ -11297,7 +11310,7 @@
         <v>-1.4086018651808672</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>-2.2608000000000201</v>
       </c>
@@ -11309,7 +11322,7 @@
         <v>-1.4077836920227522</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>-2.2545200000000198</v>
       </c>
@@ -11321,7 +11334,7 @@
         <v>-1.406909998310748</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>-2.24824000000002</v>
       </c>
@@ -11333,7 +11346,7 @@
         <v>-1.4059808185018239</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>-2.2419600000000202</v>
       </c>
@@ -11345,7 +11358,7 @@
         <v>-1.4049961892412242</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>-2.2356800000000199</v>
       </c>
@@ -11357,7 +11370,7 @@
         <v>-1.4039561493610235</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>-2.22940000000002</v>
       </c>
@@ -11369,7 +11382,7 @@
         <v>-1.4028607398785971</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>-2.2231200000000202</v>
       </c>
@@ -11381,7 +11394,7 @@
         <v>-1.4017100039949988</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>-2.2168400000000199</v>
       </c>
@@ -11393,7 +11406,7 @@
         <v>-1.4005039870932623</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>-2.2105600000000201</v>
       </c>
@@ -11405,7 +11418,7 @@
         <v>-1.3992427367366083</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>-2.2042800000000198</v>
       </c>
@@ -11417,7 +11430,7 @@
         <v>-1.3979263026665694</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>-2.1980000000000199</v>
       </c>
@@ -11429,7 +11442,7 @@
         <v>-1.396554736801028</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>-2.1917200000000201</v>
       </c>
@@ -11441,7 +11454,7 @@
         <v>-1.3951280932321701</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>-2.1854400000000198</v>
       </c>
@@ -11453,7 +11466,7 @@
         <v>-1.3936464282243499</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>-2.17916000000002</v>
       </c>
@@ -11465,7 +11478,7 @@
         <v>-1.3921098002118732</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>-2.1728800000000201</v>
       </c>
@@ -11477,7 +11490,7 @@
         <v>-1.3905182697966905</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>-2.1666000000000198</v>
       </c>
@@ -11489,7 +11502,7 @@
         <v>-1.388871899746009</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>-2.16032000000002</v>
       </c>
@@ -11501,7 +11514,7 @@
         <v>-1.3871707549898158</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>-2.1540400000000202</v>
       </c>
@@ -11513,7 +11526,7 @@
         <v>-1.3854149026183178</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>-2.1477600000000199</v>
       </c>
@@ -11525,7 +11538,7 @@
         <v>-1.3836044118792956</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>-2.14148000000002</v>
       </c>
@@ -11537,7 +11550,7 @@
         <v>-1.3817393541753722</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>-2.1352000000000202</v>
       </c>
@@ -11549,7 +11562,7 @@
         <v>-1.3798198030611983</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>-2.1289200000000199</v>
       </c>
@@ -11561,7 +11574,7 @@
         <v>-1.3778458342405489</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>-2.1226400000000201</v>
       </c>
@@ -11573,7 +11586,7 @@
         <v>-1.3758175255633405</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>-2.1163600000000198</v>
       </c>
@@ -11585,7 +11598,7 @@
         <v>-1.3737349570225592</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>-2.1100800000000199</v>
       </c>
@@ -11597,7 +11610,7 @@
         <v>-1.3715982107511064</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>-2.1038000000000201</v>
       </c>
@@ -11609,7 +11622,7 @@
         <v>-1.3694073710185588</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>-2.0975200000000198</v>
       </c>
@@ -11621,7 +11634,7 @@
         <v>-1.3671625242278465</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>-2.09124000000002</v>
       </c>
@@ -11633,7 +11646,7 @@
         <v>-1.3648637589118437</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>-2.0849600000000201</v>
       </c>
@@ -11645,7 +11658,7 @@
         <v>-1.3625111657298792</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>-2.0786800000000198</v>
       </c>
@@ -11657,7 +11670,7 @@
         <v>-1.3601048374641587</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>-2.07240000000002</v>
       </c>
@@ -11669,7 +11682,7 @@
         <v>-1.3576448690161067</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>-2.0661200000000202</v>
       </c>
@@ -11681,7 +11694,7 @@
         <v>-1.3551313574026245</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>-2.0598400000000199</v>
       </c>
@@ -11693,7 +11706,7 @@
         <v>-1.3525644017522622</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>-2.05356000000002</v>
       </c>
@@ -11705,7 +11718,7 @@
         <v>-1.3499441033013113</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>-2.0472800000000202</v>
       </c>
@@ -11717,7 +11730,7 @@
         <v>-1.3472705653898103</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>-2.0410000000000199</v>
       </c>
@@ -11729,7 +11742,7 @@
         <v>-1.3445438934574701</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>-2.0347200000000201</v>
       </c>
@@ -11741,7 +11754,7 @@
         <v>-1.341764195039516</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>-2.0284400000000198</v>
       </c>
@@ -11753,7 +11766,7 @@
         <v>-1.3389315797624457</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>-2.0221600000000199</v>
       </c>
@@ -11765,7 +11778,7 @@
         <v>-1.3360461593397062</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>-2.0158800000000201</v>
       </c>
@@ -11777,7 +11790,7 @@
         <v>-1.3331080475672885</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>-2.0096000000000198</v>
       </c>
@@ -11789,7 +11802,7 @@
         <v>-1.3301173603192389</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>-2.00332000000002</v>
       </c>
@@ -11801,7 +11814,7 @@
         <v>-1.3270742155430899</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>-1.9970400000000199</v>
       </c>
@@ -11813,7 +11826,7 @@
         <v>-1.323978733255208</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>-1.9907600000000201</v>
       </c>
@@ -11825,7 +11838,7 @@
         <v>-1.3208310355360604</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>-1.98448000000002</v>
       </c>
@@ -11837,7 +11850,7 @@
         <v>-1.3176312465254014</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>-1.9782000000000199</v>
       </c>
@@ -11849,7 +11862,7 @@
         <v>-1.3143794924173744</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>-1.9719200000000201</v>
       </c>
@@ -11861,7 +11874,7 @@
         <v>-1.3110759014555378</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>-1.96564000000002</v>
       </c>
@@ -11873,7 +11886,7 @@
         <v>-1.3077206039278046</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>-1.95936000000002</v>
       </c>
@@ -11885,7 +11898,7 @@
         <v>-1.3043137321613065</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>-1.9530800000000199</v>
       </c>
@@ -11897,7 +11910,7 @@
         <v>-1.300855420517173</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>-1.9468000000000201</v>
       </c>
@@ -11909,7 +11922,7 @@
         <v>-1.297345805385234</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>-1.94052000000002</v>
       </c>
@@ -11921,7 +11934,7 @@
         <v>-1.29378502517864</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>-1.9342400000000199</v>
       </c>
@@ -11933,7 +11946,7 @@
         <v>-1.2901732203284035</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>-1.9279600000000201</v>
       </c>
@@ -11945,7 +11958,7 @@
         <v>-1.2865105332778608</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>-1.92168000000002</v>
       </c>
@@ -11957,7 +11970,7 @@
         <v>-1.282797108477054</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>-1.91540000000002</v>
       </c>
@@ -11969,7 +11982,7 @@
         <v>-1.2790330923770346</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>-1.9091200000000199</v>
       </c>
@@ -11981,7 +11994,7 @@
         <v>-1.2752186334240874</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>-1.9028400000000201</v>
       </c>
@@ -11993,7 +12006,7 @@
         <v>-1.2713538820538757</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>-1.89656000000002</v>
       </c>
@@ -12005,7 +12018,7 @@
         <v>-1.267438990685509</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>-1.8902800000000199</v>
       </c>
@@ -12017,7 +12030,7 @@
         <v>-1.2634741137155316</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>-1.8840000000000201</v>
       </c>
@@ -12029,7 +12042,7 @@
         <v>-1.2594594075118339</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>-1.87772000000002</v>
       </c>
@@ -12041,7 +12054,7 @@
         <v>-1.2553950304074843</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>-1.87144000000002</v>
       </c>
@@ -12053,7 +12066,7 @@
         <v>-1.2512811426944859</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>-1.8651600000000199</v>
       </c>
@@ -12065,7 +12078,7 @@
         <v>-1.2471179066174549</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>-1.8588800000000201</v>
       </c>
@@ -12077,7 +12090,7 @@
         <v>-1.2429054863672215</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>-1.85260000000002</v>
       </c>
@@ -12089,7 +12102,7 @@
         <v>-1.2386440480743541</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>-1.8463200000000199</v>
       </c>
@@ -12101,7 +12114,7 @@
         <v>-1.2343337598026085</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>-1.8400400000000201</v>
       </c>
@@ -12113,7 +12126,7 @@
         <v>-1.2299747915422992</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>-1.83376000000002</v>
       </c>
@@ -12125,7 +12138,7 @@
         <v>-1.2255673152035949</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>-1.82748000000002</v>
       </c>
@@ -12137,7 +12150,7 @@
         <v>-1.2211115046097389</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>-1.8212000000000199</v>
       </c>
@@ -12149,7 +12162,7 @@
         <v>-1.2166075354901944</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>-1.8149200000000201</v>
       </c>
@@ -12161,7 +12174,7 @@
         <v>-1.2120555854737136</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>-1.80864000000002</v>
       </c>
@@ -12173,7 +12186,7 @@
         <v>-1.2074558340813315</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>-1.8023600000000199</v>
       </c>
@@ -12185,7 +12198,7 @@
         <v>-1.2028084627192877</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>-1.7960800000000201</v>
       </c>
@@ -12197,7 +12210,7 @@
         <v>-1.1981136546718703</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>-1.78980000000002</v>
       </c>
@@ -12209,7 +12222,7 @@
         <v>-1.1933715950941886</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>-1.78352000000002</v>
       </c>
@@ -12221,7 +12234,7 @@
         <v>-1.18858247100487</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>-1.7772400000000199</v>
       </c>
@@ -12233,7 +12246,7 @@
         <v>-1.1837464712786858</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>-1.7709600000000201</v>
       </c>
@@ -12245,7 +12258,7 @@
         <v>-1.1788637866391007</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>-1.76468000000002</v>
       </c>
@@ -12257,7 +12270,7 @@
         <v>-1.1739346096507512</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>-1.7584000000000199</v>
       </c>
@@ -12269,7 +12282,7 @@
         <v>-1.1689591347118529</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>-1.7521200000000201</v>
       </c>
@@ -12281,7 +12294,7 @@
         <v>-1.1639375580465312</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>-1.74584000000002</v>
       </c>
@@ -12293,7 +12306,7 @@
         <v>-1.1588700776970844</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>-1.73956000000002</v>
       </c>
@@ -12305,7 +12318,7 @@
         <v>-1.1537568935161731</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>-1.7332800000000199</v>
       </c>
@@ -12317,7 +12330,7 @@
         <v>-1.1485982071589369</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>-1.7270000000000201</v>
       </c>
@@ -12329,7 +12342,7 @@
         <v>-1.1433942220750437</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>-1.72072000000002</v>
       </c>
@@ -12341,7 +12354,7 @@
         <v>-1.1381451435006642</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>-1.7144400000000199</v>
       </c>
@@ -12353,7 +12366,7 @@
         <v>-1.1328511784503785</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>-1.7081600000000201</v>
       </c>
@@ -12365,7 +12378,7 @@
         <v>-1.1275125357090114</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>-1.70188000000002</v>
       </c>
@@ -12377,7 +12390,7 @@
         <v>-1.1221294258233994</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>-1.69560000000002</v>
       </c>
@@ -12389,7 +12402,7 @@
         <v>-1.116702061094085</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>-1.6893200000000199</v>
       </c>
@@ -12401,7 +12414,7 @@
         <v>-1.1112306555669462</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>-1.6830400000000201</v>
       </c>
@@ -12413,7 +12426,7 @@
         <v>-1.1057154250247538</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>-1.67676000000002</v>
       </c>
@@ -12425,7 +12438,7 @@
         <v>-1.1001565869786607</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>-1.6704800000000199</v>
       </c>
@@ -12437,7 +12450,7 @@
         <v>-1.0945543606596249</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>-1.6642000000000201</v>
       </c>
@@ -12449,7 +12462,7 @@
         <v>-1.0889089670097631</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>-1.65792000000002</v>
       </c>
@@ -12461,7 +12474,7 @@
         <v>-1.0832206286736359</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>-1.65164000000002</v>
       </c>
@@ -12473,7 +12486,7 @@
         <v>-1.0774895699894691</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>-1.6453600000000199</v>
       </c>
@@ -12485,7 +12498,7 @@
         <v>-1.0717160169803044</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>-1.6390800000000201</v>
       </c>
@@ -12497,7 +12510,7 @@
         <v>-1.0659001973450868</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>-1.63280000000002</v>
       </c>
@@ -12509,7 +12522,7 @@
         <v>-1.060042340449683</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>-1.6265200000000199</v>
       </c>
@@ -12521,7 +12534,7 @@
         <v>-1.0541426773178377</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>-1.6202400000000201</v>
       </c>
@@ -12533,7 +12546,7 @@
         <v>-1.0482014406220608</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>-1.61396000000002</v>
       </c>
@@ -12545,7 +12558,7 @@
         <v>-1.0422188646744506</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>-1.60768000000002</v>
       </c>
@@ -12557,7 +12570,7 @@
         <v>-1.0361951854174556</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>-1.6014000000000199</v>
       </c>
@@ -12569,7 +12582,7 @@
         <v>-1.0301306404145669</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>-1.5951200000000201</v>
       </c>
@@ -12581,7 +12594,7 @@
         <v>-1.0240254688409505</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>-1.58884000000002</v>
       </c>
@@ -12593,7 +12606,7 @@
         <v>-1.0178799114740129</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>-1.58256000000002</v>
       </c>
@@ -12605,7 +12618,7 @@
         <v>-1.0116942106839077</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>-1.5762800000000201</v>
       </c>
@@ -12617,7 +12630,7 @@
         <v>-1.0054686104239752</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>-1.57000000000002</v>
       </c>
@@ -12629,7 +12642,7 @@
         <v>-0.99920335622112133</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>-1.56372000000002</v>
       </c>
@@ -12641,7 +12654,7 @@
         <v>-0.99289869516613571</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>-1.5574400000000199</v>
       </c>
@@ -12653,7 +12666,7 @@
         <v>-0.98655487590394575</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>-1.5511600000000201</v>
       </c>
@@ -12665,7 +12678,7 @@
         <v>-0.98017214862381086</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>-1.54488000000002</v>
       </c>
@@ -12677,7 +12690,7 @@
         <v>-0.97375076504945479</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>-1.53860000000002</v>
       </c>
@@ -12689,7 +12702,7 @@
         <v>-0.9672909784291398</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>-1.5323200000000201</v>
       </c>
@@ -12701,7 +12714,7 @@
         <v>-0.96079304352567696</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>-1.52604000000002</v>
       </c>
@@ -12713,7 +12726,7 @@
         <v>-0.95425721660637985</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>-1.51976000000002</v>
       </c>
@@ -12725,7 +12738,7 @@
         <v>-0.9476837554329578</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>-1.5134800000000199</v>
       </c>
@@ -12737,7 +12750,7 @@
         <v>-0.94107291925134984</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>-1.5072000000000201</v>
       </c>
@@ -12749,7 +12762,7 @@
         <v>-0.93442496878150116</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>-1.50092000000002</v>
       </c>
@@ -12761,7 +12774,7 @@
         <v>-0.92774016620707944</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>-1.49464000000002</v>
       </c>
@@ -12773,7 +12786,7 @@
         <v>-0.92101877516513619</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>-1.4883600000000199</v>
       </c>
@@ -12785,7 +12798,7 @@
         <v>-0.91426106073570856</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>-1.48208000000002</v>
       </c>
@@ -12797,7 +12810,7 @@
         <v>-0.90746728943136601</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>-1.47580000000002</v>
       </c>
@@ -12809,7 +12822,7 @@
         <v>-0.90063772918669749</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>-1.4695200000000199</v>
       </c>
@@ -12821,7 +12834,7 @@
         <v>-0.89377264934774658</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>-1.4632400000000201</v>
       </c>
@@ -12833,7 +12846,7 @@
         <v>-0.88687232066138877</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>-1.45696000000002</v>
       </c>
@@ -12845,7 +12858,7 @@
         <v>-0.87993701526465196</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>-1.45068000000002</v>
       </c>
@@ -12857,7 +12870,7 @@
         <v>-0.87296700667398563</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>-1.4444000000000199</v>
       </c>
@@ -12869,7 +12882,7 @@
         <v>-0.86596256977447328</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>-1.43812000000002</v>
       </c>
@@ -12881,7 +12894,7 @@
         <v>-0.85892398080899157</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>-1.43184000000002</v>
       </c>
@@ -12893,7 +12906,7 @@
         <v>-0.85185151736731468</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>-1.4255600000000199</v>
       </c>
@@ -12905,7 +12918,7 @@
         <v>-0.84474545837516835</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>-1.4192800000000201</v>
       </c>
@@ -12917,7 +12930,7 @@
         <v>-0.83760608408322879</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>-1.41300000000002</v>
       </c>
@@ -12929,7 +12942,7 @@
         <v>-0.8304336760560691</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>-1.40672000000002</v>
       </c>
@@ -12941,7 +12954,7 @@
         <v>-0.82322851716105672</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>-1.4004400000000199</v>
       </c>
@@ -12953,7 +12966,7 @@
         <v>-0.81599089155719629</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>-1.39416000000002</v>
       </c>
@@ -12965,7 +12978,7 @@
         <v>-0.80872108468392345</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>-1.38788000000002</v>
       </c>
@@ -12977,7 +12990,7 @@
         <v>-0.80141938324984696</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>-1.3816000000000199</v>
       </c>
@@ -12989,7 +13002,7 @@
         <v>-0.79408607522144248</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>-1.3753200000000201</v>
       </c>
@@ -13001,7 +13014,7 @@
         <v>-0.78672144981169501</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>-1.36904000000002</v>
       </c>
@@ -13013,7 +13026,7 @@
         <v>-0.77932579746869224</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>-1.36276000000002</v>
       </c>
@@ -13025,7 +13038,7 @@
         <v>-0.77189940986417127</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>-1.3564800000000199</v>
       </c>
@@ -13037,7 +13050,7 @@
         <v>-0.76444257988201447</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>-1.3502000000000201</v>
       </c>
@@ -13049,7 +13062,7 @@
         <v>-0.75695560160669895</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>-1.34392000000002</v>
       </c>
@@ -13061,7 +13074,7 @@
         <v>-0.74943877031169803</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>-1.3376400000000199</v>
       </c>
@@ -13073,7 +13086,7 @@
         <v>-0.74189238244783684</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>-1.3313600000000201</v>
       </c>
@@ -13085,7 +13098,7 @@
         <v>-0.73431673563160071</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>-1.32508000000002</v>
       </c>
@@ -13097,7 +13110,7 @@
         <v>-0.72671212863339663</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>-1.31880000000002</v>
       </c>
@@ -13109,7 +13122,7 @@
         <v>-0.71907886136577159</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>-1.3125200000000199</v>
       </c>
@@ -13121,7 +13134,7 @@
         <v>-0.71141723487158437</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>-1.3062400000000201</v>
       </c>
@@ -13133,7 +13146,7 @@
         <v>-0.70372755131213216</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>-1.29996000000002</v>
       </c>
@@ -13145,7 +13158,7 @@
         <v>-0.69601011395523416</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>-1.2936800000000199</v>
       </c>
@@ -13157,7 +13170,7 @@
         <v>-0.68826522716327154</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>-1.2874000000000201</v>
       </c>
@@ -13169,7 +13182,7 @@
         <v>-0.680493196381184</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>-1.28112000000002</v>
       </c>
@@ -13181,7 +13194,7 @@
         <v>-0.67269432812442242</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>-1.27484000000002</v>
       </c>
@@ -13193,7 +13206,7 @@
         <v>-0.6648689299668622</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>-1.2685600000000199</v>
       </c>
@@ -13205,7 +13218,7 @@
         <v>-0.65701731052867163</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>-1.2622800000000201</v>
       </c>
@@ -13217,7 +13230,7 @@
         <v>-0.64913977946414125</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>-1.25600000000002</v>
       </c>
@@ -13229,7 +13242,7 @@
         <v>-0.64123664744947084</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>-1.2497200000000199</v>
       </c>
@@ -13241,7 +13254,7 @@
         <v>-0.63330822617051785</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>-1.2434400000000201</v>
       </c>
@@ -13253,7 +13266,7 @@
         <v>-0.6253548283105046</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>-1.23716000000002</v>
       </c>
@@ -13265,7 +13278,7 @@
         <v>-0.617376767537686</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>-1.23088000000002</v>
       </c>
@@ -13277,7 +13290,7 @@
         <v>-0.60937435849297994</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>-1.2246000000000199</v>
       </c>
@@ -13289,7 +13302,7 @@
         <v>-0.60134791677755839</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>-1.2183200000000201</v>
       </c>
@@ -13301,7 +13314,7 @@
         <v>-0.59329775894039993</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>-1.21204000000002</v>
       </c>
@@ -13313,7 +13326,7 @@
         <v>-0.58522420246580564</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>-1.2057600000000199</v>
       </c>
@@ -13325,7 +13338,7 @@
         <v>-0.57712756576087876</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>-1.1994800000000201</v>
       </c>
@@ -13337,7 +13350,7 @@
         <v>-0.5690081681429674</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>-1.19320000000002</v>
       </c>
@@ -13349,7 +13362,7 @@
         <v>-0.56086632982706952</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>-1.18692000000002</v>
       </c>
@@ -13361,7 +13374,7 @@
         <v>-0.55270237191320626</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>-1.1806400000000199</v>
       </c>
@@ -13373,7 +13386,7 @@
         <v>-0.54451661637375748</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>-1.1743600000000201</v>
       </c>
@@ -13385,7 +13398,7 @@
         <v>-0.53630938604076339</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>-1.16808000000002</v>
       </c>
@@ -13397,7 +13410,7 @@
         <v>-0.52808100459319274</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>-1.1618000000000199</v>
       </c>
@@ -13409,7 +13422,7 @@
         <v>-0.51983179654417788</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>-1.1555200000000201</v>
       </c>
@@ -13421,7 +13434,7 @@
         <v>-0.51156208722821661</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>-1.14924000000002</v>
       </c>
@@ -13433,7 +13446,7 @@
         <v>-0.50327220278834051</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>-1.14296000000002</v>
       </c>
@@ -13445,7 +13458,7 @@
         <v>-0.49496247016325395</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>-1.1366800000000199</v>
       </c>
@@ -13457,7 +13470,7 @@
         <v>-0.4866332170744388</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>-1.1304000000000201</v>
       </c>
@@ -13469,7 +13482,7 @@
         <v>-0.47828477201323077</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>-1.12412000000002</v>
       </c>
@@ -13481,7 +13494,7 @@
         <v>-0.46991746422786307</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>-1.1178400000000199</v>
       </c>
@@ -13493,7 +13506,7 @@
         <v>-0.46153162371048267</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>-1.1115600000000101</v>
       </c>
@@ -13505,7 +13518,7 @@
         <v>-0.45312758118412227</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>-1.10528000000001</v>
       </c>
@@ -13517,7 +13530,7 @@
         <v>-0.44470566808970963</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>-1.09900000000001</v>
       </c>
@@ -13529,7 +13542,7 @@
         <v>-0.43626621657291714</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>-1.0927200000000099</v>
       </c>
@@ -13541,7 +13554,7 @@
         <v>-0.42780955947111587</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>-1.0864400000000101</v>
       </c>
@@ -13553,7 +13566,7 @@
         <v>-0.41933603030023542</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>-1.08016000000001</v>
       </c>
@@ -13565,7 +13578,7 @@
         <v>-0.41084596324160971</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>-1.0738800000000099</v>
       </c>
@@ -13577,7 +13590,7 @@
         <v>-0.40233969312879914</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>-1.0676000000000101</v>
       </c>
@@ -13589,7 +13602,7 @@
         <v>-0.39381755543438501</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>-1.06132000000001</v>
       </c>
@@ -13601,7 +13614,7 @@
         <v>-0.38527988625673698</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>-1.05504000000001</v>
       </c>
@@ -13613,7 +13626,7 @@
         <v>-0.37672702230676114</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>-1.0487600000000099</v>
       </c>
@@ -13625,7 +13638,7 @@
         <v>-0.3681593008946184</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>-1.0424800000000101</v>
       </c>
@@ -13637,7 +13650,7 @@
         <v>-0.35957705991642275</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>-1.03620000000001</v>
       </c>
@@ -13649,7 +13662,7 @@
         <v>-0.3509806378409136</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>-1.0299200000000099</v>
       </c>
@@ -13661,7 +13674,7 @@
         <v>-0.34237037369610968</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>-1.0236400000000101</v>
       </c>
@@ -13673,7 +13686,7 @@
         <v>-0.3337466070559364</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>-1.01736000000001</v>
       </c>
@@ -13685,7 +13698,7 @@
         <v>-0.32510967802683388</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>-1.01108000000001</v>
       </c>
@@ -13697,7 +13710,7 @@
         <v>-0.3164599272343448</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>-1.0048000000000099</v>
       </c>
@@ -13709,7 +13722,7 @@
         <v>-0.30779769580967953</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>-0.99852000000001795</v>
       </c>
@@ -13721,7 +13734,7 @@
         <v>-0.29912332537627428</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>-0.992240000000018</v>
       </c>
@@ -13733,7 +13746,7 @@
         <v>-0.29043715803627357</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>-0.98596000000001804</v>
       </c>
@@ -13745,7 +13758,7 @@
         <v>-0.28173953635710447</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>-0.97968000000001898</v>
       </c>
@@ -13757,7 +13770,7 @@
         <v>-0.27303080335792373</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>-0.97340000000001903</v>
       </c>
@@ -13769,7 +13782,7 @@
         <v>-0.26431130249609569</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>-0.96712000000001896</v>
       </c>
@@ -13781,7 +13794,7 @@
         <v>-0.25558137765365385</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>-0.96084000000001901</v>
       </c>
@@ -13793,7 +13806,7 @@
         <v>-0.24684137312373511</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>-0.95456000000001895</v>
       </c>
@@ -13805,7 +13818,7 @@
         <v>-0.2380916335970007</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>-0.948280000000019</v>
       </c>
@@ -13817,7 +13830,7 @@
         <v>-0.22933250414804451</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>-0.94200000000001904</v>
       </c>
@@ -13829,7 +13842,7 @@
         <v>-0.22056433022178179</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>-0.93572000000001898</v>
       </c>
@@ -13841,7 +13854,7 @@
         <v>-0.2117874576198262</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>-0.92944000000001903</v>
       </c>
@@ -13853,7 +13866,7 @@
         <v>-0.20300223248685334</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>-0.92316000000001897</v>
       </c>
@@ -13865,7 +13878,7 @@
         <v>-0.19420900129694674</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>-0.91688000000001901</v>
       </c>
@@ -13877,7 +13890,7 @@
         <v>-0.18540811083993602</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>-0.91060000000001895</v>
       </c>
@@ -13889,7 +13902,7 @@
         <v>-0.17659990820771843</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>-0.904320000000019</v>
       </c>
@@ -13901,7 +13914,7 @@
         <v>-0.16778474078057115</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>-0.89804000000001905</v>
       </c>
@@ -13913,7 +13926,7 @@
         <v>-0.15896295621345069</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>-0.89176000000001898</v>
       </c>
@@ -13925,7 +13938,7 @@
         <v>-0.15013490242228156</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>-0.88548000000001903</v>
       </c>
@@ -13937,7 +13950,7 @@
         <v>-0.14130092757023693</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>-0.87920000000001897</v>
       </c>
@@ -13949,7 +13962,7 @@
         <v>-0.13246138005400487</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>-0.87292000000001901</v>
       </c>
@@ -13961,7 +13974,7 @@
         <v>-0.12361660849005085</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>-0.86664000000001895</v>
       </c>
@@ -13973,7 +13986,7 @@
         <v>-0.1147669617008672</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>-0.860360000000019</v>
       </c>
@@ -13985,7 +13998,7 @@
         <v>-0.1059127887012169</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>-0.85408000000001905</v>
       </c>
@@ -13997,7 +14010,7 @@
         <v>-9.7054438684368471E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>-0.84780000000001998</v>
       </c>
@@ -14009,7 +14022,7 @@
         <v>-8.8192261008326667E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>-0.84152000000002003</v>
       </c>
@@ -14021,7 +14034,7 @@
         <v>-7.9326605182047927E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>-0.83524000000001997</v>
       </c>
@@ -14033,7 +14046,7 @@
         <v>-7.0457820851665298E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>-0.82896000000002001</v>
       </c>
@@ -14045,7 +14058,7 @@
         <v>-6.1586257786693355E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>-0.82268000000001995</v>
       </c>
@@ -14057,7 +14070,7 @@
         <v>-5.2712265866234675E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>-0.81640000000002</v>
       </c>
@@ -14069,7 +14082,7 @@
         <v>-4.3836195065182326E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>-0.81012000000002005</v>
       </c>
@@ -14081,7 +14094,7 @@
         <v>-3.4958395440416346E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>-0.80384000000001998</v>
       </c>
@@ -14093,7 +14106,7 @@
         <v>-2.6079217116998676E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>-0.79756000000002003</v>
       </c>
@@ -14105,7 +14118,7 @@
         <v>-1.719901027436499E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>-0.79128000000001997</v>
       </c>
@@ -14117,7 +14130,7 @@
         <v>-8.3181251325136207E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>-0.78500000000002002</v>
       </c>
@@ -14129,7 +14142,7 @@
         <v>5.6308806180560556E-4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>-0.77872000000001995</v>
       </c>
@@ -14141,7 +14154,7 @@
         <v>9.4442790489056572E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>-0.77244000000002</v>
       </c>
@@ -14153,7 +14166,7 @@
         <v>1.8325097569975024E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>-0.76616000000002005</v>
       </c>
@@ -14165,7 +14178,7 @@
         <v>2.7205193380891446E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>-0.75988000000001998</v>
       </c>
@@ -14177,7 +14190,7 @@
         <v>3.6084216266035751E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>-0.75360000000002003</v>
       </c>
@@ -14189,7 +14202,7 @@
         <v>4.4961816052102033E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>-0.74732000000001997</v>
       </c>
@@ -14201,7 +14214,7 @@
         <v>5.3837642621910153E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>-0.74104000000002002</v>
       </c>
@@ -14213,7 +14226,7 @@
         <v>6.2711345928211482E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>-0.73476000000001995</v>
       </c>
@@ -14225,7 +14238,7 @@
         <v>7.1582576007496068E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>-0.72848000000002</v>
       </c>
@@ -14237,7 +14250,7 @@
         <v>8.0450982993793163E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>-0.72220000000002005</v>
       </c>
@@ -14249,7 +14262,7 @@
         <v>8.9316217132470177E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>-0.71592000000002098</v>
       </c>
@@ -14261,7 +14274,7 @@
         <v>9.8177928794024871E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>-0.70964000000002103</v>
       </c>
@@ -14273,7 +14286,7 @@
         <v>0.10703576848787943</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>-0.70336000000002097</v>
       </c>
@@ -14285,7 +14298,7 @@
         <v>0.11588938687615558</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>-0.69708000000002102</v>
       </c>
@@ -14297,7 +14310,7 @@
         <v>0.12473843478745716</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>-0.69080000000002095</v>
       </c>
@@ -14309,7 +14322,7 @@
         <v>0.13358256323064055</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>-0.684520000000021</v>
       </c>
@@ -14321,7 +14334,7 @@
         <v>0.14242142340857644</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>-0.67824000000002105</v>
       </c>
@@ -14333,7 +14346,7 @@
         <v>0.15125466673190735</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>-0.67196000000002098</v>
       </c>
@@ -14345,7 +14358,7 @@
         <v>0.16008194483279481</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>-0.66568000000002103</v>
       </c>
@@ -14357,7 +14370,7 @@
         <v>0.16890290957865828</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>-0.65940000000002097</v>
       </c>
@@ -14369,7 +14382,7 @@
         <v>0.17771721308590516</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>-0.65312000000002102</v>
       </c>
@@ -14381,7 +14394,7 @@
         <v>0.18652450773365004</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>-0.64684000000002095</v>
       </c>
@@ -14393,7 +14406,7 @@
         <v>0.19532444617742595</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>-0.640560000000021</v>
       </c>
@@ -14405,7 +14418,7 @@
         <v>0.20411668136288053</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>-0.63428000000002105</v>
       </c>
@@ -14417,7 +14430,7 @@
         <v>0.21290086653946561</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>-0.62800000000002099</v>
       </c>
@@ -14429,7 +14442,7 @@
         <v>0.22167665527411107</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>-0.62172000000002103</v>
       </c>
@@ -14441,7 +14454,7 @@
         <v>0.2304437014648878</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>-0.61544000000002097</v>
       </c>
@@ -14453,7 +14466,7 @@
         <v>0.23920165935465787</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>-0.60916000000002102</v>
       </c>
@@ -14465,7 +14478,7 @@
         <v>0.24795018354470966</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>-0.60288000000002095</v>
       </c>
@@ -14477,7 +14490,7 @@
         <v>0.25668892900838114</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>-0.596600000000021</v>
       </c>
@@ -14489,7 +14502,7 @@
         <v>0.26541755110466547</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>-0.59032000000002105</v>
       </c>
@@ -14501,7 +14514,7 @@
         <v>0.27413570559180456</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>-0.58404000000002199</v>
       </c>
@@ -14513,7 +14526,7 @@
         <v>0.28284304864086329</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>-0.57776000000002203</v>
       </c>
@@ -14525,7 +14538,7 @@
         <v>0.2915392368492945</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>-0.57148000000002197</v>
       </c>
@@ -14537,7 +14550,7 @@
         <v>0.30022392725447522</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>-0.56520000000002202</v>
       </c>
@@ -14549,7 +14562,7 @@
         <v>0.30889677734723697</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>-0.55892000000002195</v>
       </c>
@@ -14561,7 +14574,7 @@
         <v>0.31755744508537276</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>-0.552640000000022</v>
       </c>
@@ -14573,7 +14586,7 @@
         <v>0.32620558890712659</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>-0.54636000000002205</v>
       </c>
@@ -14585,7 +14598,7 @@
         <v>0.33484086774466415</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>-0.54008000000002199</v>
       </c>
@@ -14597,7 +14610,7 @@
         <v>0.34346294103752395</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>-0.53380000000002203</v>
       </c>
@@ -14609,7 +14622,7 @@
         <v>0.35207146874604789</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>-0.52752000000002197</v>
       </c>
@@ -14621,7 +14634,7 @@
         <v>0.36066611136479287</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>-0.52124000000002202</v>
       </c>
@@ -14633,7 +14646,7 @@
         <v>0.36924652993591917</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>-0.51496000000002196</v>
       </c>
@@ -14645,7 +14658,7 @@
         <v>0.3778123860625594</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>-0.508680000000022</v>
       </c>
@@ -14657,7 +14670,7 @@
         <v>0.38636334192216332</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>-0.50240000000002205</v>
       </c>
@@ -14669,7 +14682,7 @@
         <v>0.39489906027982191</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>-0.49612000000002199</v>
       </c>
@@ -14681,7 +14694,7 @@
         <v>0.40341920450156665</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>-0.48984000000002198</v>
       </c>
@@ -14693,7 +14706,7 @@
         <v>0.41192343856764585</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>-0.48356000000002197</v>
       </c>
@@ -14705,7 +14718,7 @@
         <v>0.42041142708577711</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>-0.47728000000002202</v>
       </c>
@@ -14717,7 +14730,7 @@
         <v>0.42888283530437415</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>-0.47100000000002201</v>
       </c>
@@ -14729,7 +14742,7 @@
         <v>0.4373373291257493</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>-0.464720000000022</v>
       </c>
@@ -14741,7 +14754,7 @@
         <v>0.44577457511928903</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>-0.458440000000022</v>
       </c>
@@ -14753,7 +14766,7 @@
         <v>0.45419424053460467</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>-0.45216000000002199</v>
       </c>
@@ -14765,7 +14778,7 @@
         <v>0.46259599331465495</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>-0.44588000000002198</v>
       </c>
@@ -14777,7 +14790,7 @@
         <v>0.47097950210884221</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>-0.43960000000002197</v>
       </c>
@@ -14789,7 +14802,7 @@
         <v>0.47934443628607953</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>-0.43332000000002202</v>
       </c>
@@ -14801,7 +14814,7 @@
         <v>0.48769046594783128</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>-0.42704000000002201</v>
       </c>
@@ -14813,7 +14826,7 @@
         <v>0.49601726194112311</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>-0.42076000000002201</v>
       </c>
@@ -14825,7 +14838,7 @@
         <v>0.50432449587152317</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>-0.414480000000022</v>
       </c>
@@ -14837,7 +14850,7 @@
         <v>0.5126118401160934</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>-0.40820000000002199</v>
       </c>
@@ -14849,7 +14862,7 @@
         <v>0.52087896783631082</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>-0.40192000000002198</v>
       </c>
@@ -14861,7 +14874,7 @@
         <v>0.52912555299095709</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>-0.39564000000002197</v>
       </c>
@@ -14873,7 +14886,7 @@
         <v>0.53735127034897712</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>-0.38936000000002202</v>
       </c>
@@ -14885,7 +14898,7 @@
         <v>0.5455557955023056</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>-0.38308000000002201</v>
       </c>
@@ -14897,7 +14910,7 @@
         <v>0.55373880487866112</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>-0.37680000000002201</v>
       </c>
@@ -14909,7 +14922,7 @@
         <v>0.56189997575430761</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>-0.370520000000022</v>
       </c>
@@ -14921,7 +14934,7 @@
         <v>0.57003898626678118</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>-0.36424000000002199</v>
       </c>
@@ -14933,7 +14946,7 @@
         <v>0.57815551542758459</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>-0.35796000000002198</v>
       </c>
@@ -14945,7 +14958,7 @@
         <v>0.58624924313484628</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>-0.35168000000002198</v>
       </c>
@@ -14957,7 +14970,7 @@
         <v>0.59431985018594435</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>-0.34540000000002202</v>
       </c>
@@ -14969,7 +14982,7 @@
         <v>0.60236701829009598</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>-0.33912000000002201</v>
       </c>
@@ -14981,7 +14994,7 @@
         <v>0.61039043008090954</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>-0.33284000000002201</v>
       </c>
@@ -14993,7 +15006,7 @@
         <v>0.61838976912890153</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>-0.326560000000022</v>
       </c>
@@ -15005,7 +15018,7 @@
         <v>0.62636471995397547</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>-0.32028000000002199</v>
       </c>
@@ -15017,7 +15030,7 @@
         <v>0.63431496803786447</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>-0.31400000000002198</v>
       </c>
@@ -15029,7 +15042,7 @@
         <v>0.64224019983653513</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>-0.30772000000002198</v>
       </c>
@@ -15041,7 +15054,7 @@
         <v>0.65014010279255274</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>-0.30144000000002202</v>
       </c>
@@ -15053,7 +15066,7 @@
         <v>0.65801436534740854</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>-0.29516000000002202</v>
       </c>
@@ -15065,7 +15078,7 @@
         <v>0.66586267695380696</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>-0.28888000000002201</v>
       </c>
@@ -15077,7 +15090,7 @@
         <v>0.67368472808791258</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>-0.282600000000022</v>
       </c>
@@ -15089,7 +15102,7 @@
         <v>0.68148021026155781</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>-0.27632000000002199</v>
       </c>
@@ -15101,7 +15114,7 @@
         <v>0.68924881603440935</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>-0.27004000000002198</v>
       </c>
@@ -15113,7 +15126,7 @@
         <v>0.6969902390260917</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>-0.26376000000002198</v>
       </c>
@@ -15125,7 +15138,7 @@
         <v>0.704704173928272</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>-0.25748000000002202</v>
       </c>
@@ -15137,7 +15150,7 @@
         <v>0.7123903165166996</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>-0.25120000000002202</v>
       </c>
@@ -15149,7 +15162,7 @@
         <v>0.72004836366320535</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>-0.24492000000002201</v>
       </c>
@@ -15161,7 +15174,7 @@
         <v>0.72767801334765481</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>-0.238640000000022</v>
       </c>
@@ -15173,7 +15186,7 @@
         <v>0.73527896466986109</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>-0.23236000000002199</v>
       </c>
@@ -15185,7 +15198,7 @@
         <v>0.74285091786145063</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>-0.22608000000002201</v>
       </c>
@@ -15197,7 +15210,7 @@
         <v>0.75039357429768605</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>-0.21980000000002201</v>
       </c>
@@ -15209,7 +15222,7 @@
         <v>0.7579066365092435</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>-0.213520000000022</v>
       </c>
@@ -15221,7 +15234,7 @@
         <v>0.76538980819394409</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>-0.20724000000002199</v>
       </c>
@@ -15233,7 +15246,7 @@
         <v>0.77284279422843971</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>-0.20096000000002201</v>
       </c>
@@ -15245,7 +15258,7 @@
         <v>0.78026530067985145</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>-0.194680000000022</v>
       </c>
@@ -15257,7 +15270,7 @@
         <v>0.78765703481736349</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>-0.18840000000002199</v>
       </c>
@@ -15269,7 +15282,7 @@
         <v>0.79501770512376613</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>-0.18212000000002199</v>
       </c>
@@ -15281,7 +15294,7 @@
         <v>0.80234702130695357</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>-0.17584000000002201</v>
       </c>
@@ -15293,7 +15306,7 @@
         <v>0.80964469431137243</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>-0.169560000000022</v>
       </c>
@@ -15305,7 +15318,7 @@
         <v>0.81691043632942162</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>-0.16328000000002199</v>
       </c>
@@ -15317,7 +15330,7 @@
         <v>0.82414396081280294</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>-0.15700000000002201</v>
       </c>
@@ -15329,7 +15342,7 @@
         <v>0.83134498248382183</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>-0.150720000000022</v>
       </c>
@@ -15341,7 +15354,7 @@
         <v>0.83851321734663875</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>-0.144440000000022</v>
       </c>
@@ -15353,7 +15366,7 @@
         <v>0.84564838269846887</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>-0.13816000000002199</v>
       </c>
@@ -15365,7 +15378,7 @@
         <v>0.85275019714073186</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>-0.13188000000002201</v>
       </c>
@@ -15377,7 +15390,7 @@
         <v>0.85981838059014959</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>-0.125600000000022</v>
       </c>
@@ -15389,7 +15402,7 @@
         <v>0.86685265428979197</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>-0.11932000000002201</v>
       </c>
@@ -15401,7 +15414,7 @@
         <v>0.87385274082007092</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>-0.113040000000022</v>
       </c>
@@ -15413,7 +15426,7 @@
         <v>0.88081836410968117</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>-0.106760000000022</v>
       </c>
@@ -15425,7 +15438,7 @@
         <v>0.88774924944648792</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>-0.100480000000022</v>
       </c>
@@ -15437,7 +15450,7 @@
         <v>0.89464512348836134</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>-9.4200000000022099E-2</v>
       </c>
@@ -15449,7 +15462,7 @@
         <v>0.90150571427395632</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>-8.7920000000022105E-2</v>
       </c>
@@ -15461,7 +15474,7 @@
         <v>0.90833075123343865</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>-8.1640000000022098E-2</v>
       </c>
@@ -15473,7 +15486,7 @@
         <v>0.91511996519915517</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>-7.5360000000022104E-2</v>
       </c>
@@ -15485,7 +15498,7 @@
         <v>0.92187308841624982</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>-6.9080000000022193E-2</v>
       </c>
@@ -15497,7 +15510,7 @@
         <v>0.92858985455322329</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>-6.2800000000022199E-2</v>
       </c>
@@ -15509,7 +15522,7 @@
         <v>0.93526999871243655</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>-5.6520000000022198E-2</v>
       </c>
@@ -15521,7 +15534,7 @@
         <v>0.94191325744055809</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>-5.0240000000022197E-2</v>
       </c>
@@ -15533,7 +15546,7 @@
         <v>0.94851936873895382</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>-4.3960000000022197E-2</v>
       </c>
@@ -15545,7 +15558,7 @@
         <v>0.95508807207402024</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>-3.7680000000022099E-2</v>
       </c>
@@ -15557,7 +15570,7 @@
         <v>0.96161910838745934</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>-3.1400000000022098E-2</v>
       </c>
@@ -15569,7 +15582,7 @@
         <v>0.96811222010649478</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>-2.51200000000221E-2</v>
       </c>
@@ -15581,7 +15594,7 @@
         <v>0.97456715115403103</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>-1.8840000000022099E-2</v>
       </c>
@@ -15593,7 +15606,7 @@
         <v>0.98098364695875218</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>-1.25600000000221E-2</v>
       </c>
@@ -15605,7 +15618,7 @@
         <v>0.98736145446516166</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>-6.2800000000221897E-3</v>
       </c>
@@ -15617,7 +15630,7 @@
         <v>0.99370032214356274</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>-2.2192317428171198E-14</v>
       </c>
@@ -15629,7 +15642,7 @@
         <v>0.9999999999999778</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>6.2799999999777999E-3</v>
       </c>
@@ -15641,7 +15654,7 @@
         <v>1.0062602395860083</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>1.2559999999977801E-2</v>
       </c>
@@ -15653,7 +15666,7 @@
         <v>1.0124807940086329</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>1.8839999999977802E-2</v>
       </c>
@@ -15665,7 +15678,7 @@
         <v>1.0186614179399442</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>2.5119999999977799E-2</v>
       </c>
@@ -15677,7 +15690,7 @@
         <v>1.0248018676268245</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>3.13999999999778E-2</v>
       </c>
@@ -15689,7 +15702,7 @@
         <v>1.0309019009005587</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>3.7679999999977801E-2</v>
       </c>
@@ -15701,7 +15714,7 @@
         <v>1.0369612771863852</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>4.3959999999977802E-2</v>
       </c>
@@ -15713,7 +15726,7 @@
         <v>1.0429797575129838</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>5.0239999999977802E-2</v>
       </c>
@@ -15725,7 +15738,7 @@
         <v>1.0489571045218999</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>5.6519999999977803E-2</v>
       </c>
@@ -15737,7 +15750,7 @@
         <v>1.0548930824769063</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>6.2799999999977804E-2</v>
       </c>
@@ -15749,7 +15762,7 @@
         <v>1.0607874572732987</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>6.9079999999977798E-2</v>
       </c>
@@ -15761,7 +15774,7 @@
         <v>1.0666399964471309</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>7.5359999999977695E-2</v>
       </c>
@@ -15773,7 +15786,7 @@
         <v>1.0724504691843801</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>8.1639999999977703E-2</v>
       </c>
@@ -15785,7 +15798,7 @@
         <v>1.0782186463300518</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>8.7919999999977697E-2</v>
       </c>
@@ -15797,7 +15810,7 @@
         <v>1.0839443003972158</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>9.4199999999977704E-2</v>
       </c>
@@ -15809,7 +15822,7 @@
         <v>1.089627205575979</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>0.100479999999977</v>
       </c>
@@ -15821,7 +15834,7 @@
         <v>1.0952671377423895</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>0.106759999999977</v>
       </c>
@@ -15833,7 +15846,7 @@
         <v>1.1008638744672792</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>0.11303999999997701</v>
       </c>
@@ -15845,7 +15858,7 @@
         <v>1.106417195025031</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>0.119319999999977</v>
       </c>
@@ -15857,7 +15870,7 @@
         <v>1.1119268804022873</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>0.12559999999997701</v>
       </c>
@@ -15869,7 +15882,7 @@
         <v>1.1173927133065864</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>0.13187999999997699</v>
       </c>
@@ -15881,7 +15894,7 @@
         <v>1.1228144781749323</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>0.138159999999977</v>
       </c>
@@ -15893,7 +15906,7 @@
         <v>1.1281919611822964</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>0.144439999999977</v>
       </c>
@@ -15905,7 +15918,7 @@
         <v>1.1335249502500497</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>0.15071999999997701</v>
       </c>
@@ -15917,7 +15930,7 @@
         <v>1.1388132350543274</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>0.15699999999997699</v>
       </c>
@@ -15929,7 +15942,7 @@
         <v>1.1440566070343234</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>0.163279999999977</v>
       </c>
@@ -15941,7 +15954,7 @@
         <v>1.1492548594005161</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>0.16955999999997701</v>
       </c>
@@ -15953,7 +15966,7 @@
         <v>1.1544077871428229</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>0.17583999999997699</v>
       </c>
@@ -15965,7 +15978,7 @@
         <v>1.1595151870386864</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>0.18211999999997699</v>
       </c>
@@ -15977,7 +15990,7 @@
         <v>1.1645768576610884</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>0.188399999999977</v>
       </c>
@@ -15989,7 +16002,7 @@
         <v>1.1695925993864944</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>0.19467999999997701</v>
       </c>
@@ -16001,7 +16014,7 @@
         <v>1.1745622144027261</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>0.20095999999997699</v>
       </c>
@@ -16013,7 +16026,7 @@
         <v>1.1794855067167624</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>0.207239999999977</v>
       </c>
@@ -16025,7 +16038,7 @@
         <v>1.1843622821624704</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>0.21351999999997701</v>
       </c>
@@ -16037,7 +16050,7 @@
         <v>1.1891923484082614</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>0.21979999999997701</v>
       </c>
@@ -16049,7 +16062,7 @@
         <v>1.1939755149646762</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>0.22607999999997699</v>
       </c>
@@ -16061,7 +16074,7 @@
         <v>1.1987115931918995</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>0.232359999999977</v>
       </c>
@@ -16073,7 +16086,7 @@
         <v>1.2034003963071975</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>0.23863999999997701</v>
       </c>
@@ -16085,7 +16098,7 @@
         <v>1.2080417393922849</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>0.24491999999997699</v>
       </c>
@@ -16097,7 +16110,7 @@
         <v>1.2126354394006185</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>0.251199999999977</v>
       </c>
@@ -16109,7 +16122,7 @@
         <v>1.2171813151646149</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>0.25747999999997701</v>
       </c>
@@ -16121,7 +16134,7 @@
         <v>1.2216791874027968</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>0.26375999999997701</v>
       </c>
@@ -16133,7 +16146,7 @@
         <v>1.2261288787268629</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>0.27003999999997702</v>
       </c>
@@ -16145,7 +16158,7 @@
         <v>1.2305302136486833</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>0.27631999999997697</v>
       </c>
@@ -16157,7 +16170,7 @@
         <v>1.2348830185872215</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>0.28259999999997698</v>
       </c>
@@ -16169,7 +16182,7 @@
         <v>1.2391871218753796</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>0.28887999999997699</v>
       </c>
@@ -16181,7 +16194,7 @@
         <v>1.2434423537667678</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>0.295159999999977</v>
       </c>
@@ -16193,7 +16206,7 @@
         <v>1.2476485464424008</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>0.301439999999977</v>
       </c>
@@ -16205,7 +16218,7 @@
         <v>1.2518055340173142</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>0.30771999999997701</v>
       </c>
@@ -16217,7 +16230,7 @@
         <v>1.2559131525471081</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>0.31399999999997702</v>
       </c>
@@ -16229,7 +16242,7 @@
         <v>1.2599712400344123</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>0.32027999999997703</v>
       </c>
@@ -16241,7 +16254,7 @@
         <v>1.2639796364352753</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>0.32655999999997798</v>
       </c>
@@ -16253,7 +16266,7 @@
         <v>1.2679381836654766</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>0.33283999999997799</v>
       </c>
@@ -16265,7 +16278,7 @@
         <v>1.2718467256067589</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>0.33911999999997799</v>
       </c>
@@ -16277,7 +16290,7 @@
         <v>1.2757051081129893</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>0.345399999999978</v>
       </c>
@@ -16289,7 +16302,7 @@
         <v>1.2795131790162348</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>0.35167999999997801</v>
       </c>
@@ -16301,7 +16314,7 @@
         <v>1.2832707881327656</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>0.35795999999997802</v>
       </c>
@@ -16313,7 +16326,7 @@
         <v>1.2869777872689774</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>0.36423999999997803</v>
       </c>
@@ -16325,7 +16338,7 @@
         <v>1.2906340302272361</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>0.37051999999997798</v>
       </c>
@@ -16337,7 +16350,7 @@
         <v>1.294239372811643</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>0.37679999999997799</v>
       </c>
@@ -16349,7 +16362,7 @@
         <v>1.2977936728337229</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>0.38307999999997799</v>
       </c>
@@ -16361,7 +16374,7 @@
         <v>1.3012967901180301</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>0.389359999999978</v>
       </c>
@@ -16373,7 +16386,7 @@
         <v>1.304748586507678</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>0.39563999999997801</v>
       </c>
@@ -16385,7 +16398,7 @@
         <v>1.3081489258697874</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>0.40191999999997802</v>
       </c>
@@ -16397,7 +16410,7 @@
         <v>1.3114976741008553</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>0.40819999999997802</v>
       </c>
@@ -16409,7 +16422,7 @@
         <v>1.3147946991320429</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>0.41447999999997798</v>
       </c>
@@ -16421,7 +16434,7 @@
         <v>1.3180398709343861</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>0.42075999999997798</v>
       </c>
@@ -16433,7 +16446,7 @@
         <v>1.3212330615239218</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>0.42703999999997799</v>
       </c>
@@ -16445,7 +16458,7 @@
         <v>1.3243741449667361</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>0.433319999999978</v>
       </c>
@@ -16457,7 +16470,7 @@
         <v>1.3274629973839309</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>0.43959999999997801</v>
       </c>
@@ -16469,7 +16482,7 @@
         <v>1.3304994969565094</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>0.44587999999997802</v>
       </c>
@@ -16481,7 +16494,7 @@
         <v>1.3334835239301803</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>0.45215999999997802</v>
       </c>
@@ -16493,7 +16506,7 @@
         <v>1.3364149606200812</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>0.45843999999997798</v>
       </c>
@@ -16505,7 +16518,7 @@
         <v>1.3392936914154192</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>0.46471999999997798</v>
       </c>
@@ -16517,7 +16530,7 @@
         <v>1.342119602784031</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>0.47099999999997799</v>
       </c>
@@ -16529,7 +16542,7 @@
         <v>1.3448925832768595</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>0.477279999999978</v>
       </c>
@@ -16541,7 +16554,7 @@
         <v>1.3476125235323506</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>0.48355999999997801</v>
       </c>
@@ -16553,7 +16566,7 @@
         <v>1.3502793162807651</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>0.48983999999997802</v>
       </c>
@@ -16565,7 +16578,7 @@
         <v>1.3528928563484093</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>0.49611999999997802</v>
       </c>
@@ -16577,7 +16590,7 @@
         <v>1.3554530406617837</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>0.50239999999997798</v>
       </c>
@@ -16589,7 +16602,7 @@
         <v>1.3579597682516469</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>0.50867999999997804</v>
       </c>
@@ -16601,7 +16614,7 @@
         <v>1.3604129402569982</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>0.51495999999997799</v>
       </c>
@@ -16613,7 +16626,7 @@
         <v>1.3628124599289773</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>0.52123999999997805</v>
       </c>
@@ -16625,7 +16638,7 @@
         <v>1.3651582326346783</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>0.52751999999997801</v>
       </c>
@@ -16637,7 +16650,7 @@
         <v>1.3674501658608826</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>0.53379999999997796</v>
       </c>
@@ -16649,7 +16662,7 @@
         <v>1.3696881692177083</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>0.54007999999997702</v>
       </c>
@@ -16661,7 +16674,7 @@
         <v>1.3718721544421739</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>0.54635999999997698</v>
       </c>
@@ -16673,7 +16686,7 @@
         <v>1.3740020354016798</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>0.55263999999997704</v>
       </c>
@@ -16685,7 +16698,7 @@
         <v>1.3760777280974046</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>0.55891999999997699</v>
       </c>
@@ -16697,7 +16710,7 @@
         <v>1.3780991506676183</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>0.56519999999997705</v>
       </c>
@@ -16709,7 +16722,7 @@
         <v>1.3800662233909113</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>0.57147999999997701</v>
       </c>
@@ -16721,7 +16734,7 @@
         <v>1.3819788686893379</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>0.57775999999997696</v>
       </c>
@@ -16733,7 +16746,7 @@
         <v>1.3838370111314751</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>0.58403999999997702</v>
       </c>
@@ -16745,7 +16758,7 @@
         <v>1.3856405774353995</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>0.59031999999997697</v>
       </c>
@@ -16757,7 +16770,7 @@
         <v>1.3873894964715747</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>0.59659999999997704</v>
       </c>
@@ -16769,7 +16782,7 @@
         <v>1.3890836992656599</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>0.60287999999997699</v>
       </c>
@@ -16781,7 +16794,7 @@
         <v>1.3907231190012261</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>0.60915999999997705</v>
       </c>
@@ -16793,7 +16806,7 @@
         <v>1.3923076910223955</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>0.61543999999997701</v>
       </c>
@@ -16805,7 +16818,7 @@
         <v>1.3938373528363877</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>0.62171999999997696</v>
       </c>
@@ -16817,7 +16830,7 @@
         <v>1.3953120441159867</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>0.62799999999997702</v>
       </c>
@@ -16829,7 +16842,7 @@
         <v>1.3967317067019192</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>0.63427999999997697</v>
       </c>
@@ -16841,7 +16854,7 @@
         <v>1.3980962846051477</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>0.64055999999997704</v>
       </c>
@@ -16853,7 +16866,7 @@
         <v>1.3994057240090807</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>0.64683999999997699</v>
       </c>
@@ -16865,7 +16878,7 @@
         <v>1.4006599732716922</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>0.65311999999997705</v>
       </c>
@@ -16877,7 +16890,7 @@
         <v>1.4018589829275614</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>0.659399999999977</v>
       </c>
@@ -16889,7 +16902,7 @@
         <v>1.4030027056898204</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>0.66567999999997696</v>
       </c>
@@ -16901,7 +16914,7 @@
         <v>1.4040910964520226</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>0.67195999999997602</v>
       </c>
@@ -16913,7 +16926,7 @@
         <v>1.4051241122899181</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>0.67823999999997597</v>
       </c>
@@ -16925,7 +16938,7 @@
         <v>1.406101712463149</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>0.68451999999997604</v>
       </c>
@@ -16937,7 +16950,7 @@
         <v>1.407023858416856</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>0.69079999999997599</v>
       </c>
@@ -16949,7 +16962,7 @@
         <v>1.4078905137831974</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>0.69707999999997605</v>
       </c>
@@ -16961,7 +16974,7 @@
         <v>1.4087016443827838</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>0.703359999999976</v>
       </c>
@@ -16973,7 +16986,7 @@
         <v>1.4094572182260283</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>0.70963999999997596</v>
       </c>
@@ -16985,7 +16998,7 @@
         <v>1.4101572055144049</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>0.71591999999997602</v>
       </c>
@@ -16997,7 +17010,7 @@
         <v>1.4108015786416255</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>0.72219999999997597</v>
       </c>
@@ -17009,7 +17022,7 @@
         <v>1.4113903121947289</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>0.72847999999997604</v>
       </c>
@@ -17021,7 +17034,7 @@
         <v>1.4119233829550817</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>0.73475999999997599</v>
       </c>
@@ -17033,7 +17046,7 @@
         <v>1.4124007698992953</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>0.74103999999997605</v>
       </c>
@@ -17045,7 +17058,7 @@
         <v>1.4128224542000543</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>0.747319999999976</v>
       </c>
@@ -17057,7 +17070,7 @@
         <v>1.4131884192268589</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>0.75359999999997596</v>
       </c>
@@ -17069,7 +17082,7 @@
         <v>1.413498650546682</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>0.75987999999997602</v>
       </c>
@@ -17081,7 +17094,7 @@
         <v>1.4137531359245368</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>0.76615999999997597</v>
       </c>
@@ -17093,7 +17106,7 @@
         <v>1.4139518653239596</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>0.77243999999997603</v>
       </c>
@@ -17105,7 +17118,7 @@
         <v>1.4140948309074073</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>0.77871999999997599</v>
       </c>
@@ -17117,7 +17130,7 @@
         <v>1.4141820270365639</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>0.78499999999997605</v>
       </c>
@@ -17129,7 +17142,7 @@
         <v>1.4142134502725656</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>0.791279999999976</v>
       </c>
@@ -17141,7 +17154,7 @@
         <v>1.4141890993761339</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>0.79755999999997595</v>
       </c>
@@ -17153,7 +17166,7 @@
         <v>1.4141089753076261</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>0.80383999999997502</v>
       </c>
@@ -17165,7 +17178,7 @@
         <v>1.4139730812269971</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>0.81011999999997497</v>
       </c>
@@ -17177,7 +17190,7 @@
         <v>1.413781422493674</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>0.81639999999997503</v>
       </c>
@@ -17189,7 +17202,7 @@
         <v>1.4135340066663458</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>0.82267999999997499</v>
       </c>
@@ -17201,7 +17214,7 @@
         <v>1.413230843502665</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>0.82895999999997505</v>
       </c>
@@ -17213,7 +17226,7 @@
         <v>1.4128719449588623</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>0.835239999999975</v>
       </c>
@@ -17225,7 +17238,7 @@
         <v>1.4124573251892758</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>0.84151999999997495</v>
       </c>
@@ -17237,7 +17250,7 @@
         <v>1.4119870005457917</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>0.84779999999997502</v>
       </c>
@@ -17249,7 +17262,7 @@
         <v>1.4114609895772006</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>0.85407999999997497</v>
       </c>
@@ -17261,7 +17274,7 @@
         <v>1.4108793130284654</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>0.86035999999997503</v>
       </c>
@@ -17273,7 +17286,7 @@
         <v>1.4102419938399029</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>0.86663999999997499</v>
       </c>
@@ -17285,7 +17298,7 @@
         <v>1.4095490571462794</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>0.87291999999997505</v>
       </c>
@@ -17297,7 +17310,7 @@
         <v>1.4088005302758204</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>0.879199999999975</v>
       </c>
@@ -17309,7 +17322,7 @@
         <v>1.4079964427491303</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>0.88547999999997495</v>
       </c>
@@ -17321,7 +17334,7 @@
         <v>1.4071368262780304</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>0.89175999999997502</v>
       </c>
@@ -17333,7 +17346,7 @@
         <v>1.4062217147643079</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>0.89803999999997497</v>
       </c>
@@ -17345,7 +17358,7 @@
         <v>1.4052511442983779</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>0.90431999999997503</v>
       </c>
@@ -17357,7 +17370,7 @@
         <v>1.4042251531578607</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>0.91059999999997498</v>
       </c>
@@ -17369,7 +17382,7 @@
         <v>1.4031437818060724</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>0.91687999999997505</v>
       </c>
@@ -17381,7 +17394,7 @@
         <v>1.402007072890429</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>0.923159999999975</v>
       </c>
@@ -17393,7 +17406,7 @@
         <v>1.4008150712407639</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>0.92943999999997495</v>
       </c>
@@ -17405,7 +17418,7 @@
         <v>1.3995678238675604</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>0.93571999999997402</v>
       </c>
@@ -17417,7 +17430,7 @@
         <v>1.3982653799600979</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>0.94199999999997397</v>
       </c>
@@ -17429,7 +17442,7 @@
         <v>1.3969077908845109</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>0.94827999999997403</v>
       </c>
@@ -17441,7 +17454,7 @@
         <v>1.395495110181765</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>0.95455999999997398</v>
       </c>
@@ -17453,7 +17466,7 @@
         <v>1.3940273935655429</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>0.96083999999997405</v>
       </c>
@@ -17465,7 +17478,7 @@
         <v>1.3925046989200502</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>0.967119999999974</v>
       </c>
@@ -17477,7 +17490,7 @@
         <v>1.3909270862977299</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>0.97339999999997395</v>
       </c>
@@ -17489,7 +17502,7 @@
         <v>1.3892946179168946</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>0.97967999999997402</v>
       </c>
@@ -17501,7 +17514,7 @@
         <v>1.3876073581592743</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>0.98595999999997397</v>
       </c>
@@ -17513,7 +17526,7 @@
         <v>1.3858653735674755</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>0.99223999999997403</v>
       </c>
@@ -17525,7 +17538,7 @@
         <v>1.3840687328423571</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>0.99851999999997398</v>
       </c>
@@ -17537,7 +17550,7 @@
         <v>1.382217506840322</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>1.0047999999999699</v>
       </c>
@@ -17549,7 +17562,7 @@
         <v>1.3803117685705233</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>1.01107999999997</v>
       </c>
@@ -17561,7 +17574,7 @@
         <v>1.3783515931919794</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>1.0173599999999701</v>
       </c>
@@ -17573,7 +17586,7 @@
         <v>1.3763370580106185</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>1.0236399999999699</v>
       </c>
@@ -17585,7 +17598,7 @@
         <v>1.3742682424762231</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>1.02991999999997</v>
       </c>
@@ -17597,7 +17610,7 @@
         <v>1.3721452281793001</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>1.03619999999997</v>
       </c>
@@ -17609,7 +17622,7 @@
         <v>1.3699680988478615</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>1.0424799999999701</v>
       </c>
@@ -17621,7 +17634,7 @@
         <v>1.367736940344122</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>1.0487599999999699</v>
       </c>
@@ -17633,7 +17646,7 @@
         <v>1.3654518406611147</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>1.05503999999997</v>
       </c>
@@ -17645,7 +17658,7 @@
         <v>1.363112889919218</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>1.0613199999999701</v>
       </c>
@@ -17657,7 +17670,7 @@
         <v>1.3607201803626041</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>1.0675999999999699</v>
       </c>
@@ -17669,7 +17682,7 @@
         <v>1.3582738063555992</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>1.07387999999997</v>
       </c>
@@ -17681,7 +17694,7 @@
         <v>1.3557738643789632</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>1.08015999999997</v>
       </c>
@@ -17693,7 +17706,7 @@
         <v>1.3532204530260834</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>1.0864399999999701</v>
       </c>
@@ -17705,7 +17718,7 @@
         <v>1.3506136729990872</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>1.0927199999999699</v>
       </c>
@@ -17717,7 +17730,7 @@
         <v>1.3479536271048704</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>1.09899999999997</v>
       </c>
@@ -17729,7 +17742,7 @@
         <v>1.3452404202510417</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>1.1052799999999701</v>
       </c>
@@ -17741,7 +17754,7 @@
         <v>1.3424741594417871</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>1.1115599999999699</v>
       </c>
@@ -17753,7 +17766,7 @@
         <v>1.3396549537736482</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>1.11783999999997</v>
       </c>
@@ -17765,7 +17778,7 @@
         <v>1.3367829144312202</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>1.12411999999997</v>
       </c>
@@ -17777,7 +17790,7 @@
         <v>1.3338581546827675</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>1.1303999999999701</v>
       </c>
@@ -17789,7 +17802,7 @@
         <v>1.3308807898757558</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>1.1366799999999699</v>
       </c>
@@ -17801,7 +17814,7 @@
         <v>1.3278509374323033</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>1.14295999999997</v>
       </c>
@@ -17813,7 +17826,7 @@
         <v>1.3247687168445501</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>1.1492399999999701</v>
       </c>
@@ -17825,7 +17838,7 @@
         <v>1.3216342496699447</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>1.1555199999999699</v>
       </c>
@@ -17837,7 +17850,7 @@
         <v>1.3184476595264516</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>1.16179999999997</v>
       </c>
@@ -17849,7 +17862,7 @@
         <v>1.3152090720876741</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>1.16807999999997</v>
       </c>
@@ -17861,7 +17874,7 @@
         <v>1.3119186150778994</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>1.1743599999999701</v>
       </c>
@@ -17873,7 +17886,7 @@
         <v>1.3085764182670607</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>1.1806399999999699</v>
       </c>
@@ -17885,7 +17898,7 @@
         <v>1.3051826134656197</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>1.18691999999997</v>
       </c>
@@ -17897,7 +17910,7 @@
         <v>1.3017373345193675</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>1.1931999999999701</v>
       </c>
@@ -17909,7 +17922,7 @@
         <v>1.2982407173041468</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>1.1994799999999699</v>
       </c>
@@ -17921,7 +17934,7 @@
         <v>1.294692899720493</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>1.20575999999997</v>
       </c>
@@ -17933,7 +17946,7 @@
         <v>1.291094021688195</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>1.21203999999997</v>
       </c>
@@ -17945,7 +17958,7 @@
         <v>1.2874442251407776</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>1.2183199999999701</v>
       </c>
@@ -17957,7 +17970,7 @@
         <v>1.2837436540199041</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>1.2245999999999699</v>
       </c>
@@ -17969,7 +17982,7 @@
         <v>1.279992454269699</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>1.23087999999997</v>
       </c>
@@ -17981,7 +17994,7 @@
         <v>1.2761907738309923</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>1.2371599999999701</v>
       </c>
@@ -17993,7 +18006,7 @@
         <v>1.272338762635485</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>1.2434399999999699</v>
       </c>
@@ -18005,7 +18018,7 @@
         <v>1.2684365725998359</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>1.24971999999997</v>
       </c>
@@ -18017,7 +18030,7 @@
         <v>1.2644843576196712</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>1.25599999999997</v>
       </c>
@@ -18029,7 +18042,7 @@
         <v>1.2604822735635133</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>1.2622799999999701</v>
       </c>
@@ -18041,7 +18054,7 @@
         <v>1.256430478266636</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>1.2685599999999699</v>
       </c>
@@ -18053,7 +18066,7 @@
         <v>1.2523291315248373</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>1.27483999999997</v>
       </c>
@@ -18065,7 +18078,7 @@
         <v>1.2481783950881391</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>1.2811199999999701</v>
       </c>
@@ -18077,7 +18090,7 @@
         <v>1.2439784326544072</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>1.2873999999999699</v>
       </c>
@@ -18089,7 +18102,7 @@
         <v>1.2397294098628957</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>1.29367999999997</v>
       </c>
@@ -18101,7 +18114,7 @@
         <v>1.2354314942877145</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>1.29995999999997</v>
       </c>
@@ -18113,7 +18126,7 @@
         <v>1.2310848554312199</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>1.3062399999999701</v>
       </c>
@@ -18125,7 +18138,7 @@
         <v>1.2266896647173304</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>1.3125199999999699</v>
       </c>
@@ -18137,7 +18150,7 @@
         <v>1.222246095484766</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>1.31879999999997</v>
       </c>
@@ -18149,7 +18162,7 @@
         <v>1.2177543229802112</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>1.3250799999999701</v>
       </c>
@@ -18161,7 +18174,7 @@
         <v>1.213214524351405</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>1.3313599999999699</v>
       </c>
@@ -18173,7 +18186,7 @@
         <v>1.2086268786401528</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>1.33763999999997</v>
       </c>
@@ -18185,7 +18198,7 @@
         <v>1.2039915667752668</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>1.34391999999997</v>
       </c>
@@ -18197,7 +18210,7 @@
         <v>1.1993087715654296</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>1.3501999999999701</v>
       </c>
@@ -18209,7 +18222,7 @@
         <v>1.1945786776919847</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>1.3564799999999699</v>
       </c>
@@ -18221,7 +18234,7 @@
         <v>1.1898014717016536</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>1.36275999999997</v>
       </c>
@@ -18233,7 +18246,7 @@
         <v>1.1849773419991774</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1.3690399999999701</v>
       </c>
@@ -18245,7 +18258,7 @@
         <v>1.1801064788398878</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>1.3753199999999699</v>
       </c>
@@ -18257,7 +18270,7 @@
         <v>1.1751890743222035</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>1.38159999999997</v>
       </c>
@@ -18269,7 +18282,7 @@
         <v>1.1702253223800527</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>1.38787999999997</v>
       </c>
@@ -18281,7 +18294,7 @@
         <v>1.1652154187752273</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>1.3941599999999701</v>
       </c>
@@ -18293,7 +18306,7 @@
         <v>1.1601595610896598</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>1.4004399999999699</v>
       </c>
@@ -18305,7 +18318,7 @@
         <v>1.1550579487176331</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>1.40671999999997</v>
       </c>
@@ -18317,7 +18330,7 @@
         <v>1.1499107828579147</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>1.4129999999999701</v>
       </c>
@@ -18329,7 +18342,7 @@
         <v>1.144718266505824</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>1.4192799999999699</v>
       </c>
@@ -18341,7 +18354,7 @@
         <v>1.1394806044452248</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>1.42555999999997</v>
       </c>
@@ -18353,7 +18366,7 @@
         <v>1.1341980032404493</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>1.43183999999997</v>
       </c>
@@ -18365,7 +18378,7 @@
         <v>1.1288706712281524</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>1.4381199999999701</v>
       </c>
@@ -18377,7 +18390,7 @@
         <v>1.1234988185090946</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>1.4443999999999699</v>
       </c>
@@ -18389,7 +18402,7 @@
         <v>1.1180826569398559</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>1.45067999999997</v>
       </c>
@@ -18401,7 +18414,7 @@
         <v>1.1126224001244802</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>1.4569599999999701</v>
       </c>
@@ -18413,7 +18426,7 @@
         <v>1.1071182634060523</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>1.4632399999999699</v>
       </c>
@@ -18425,7 +18438,7 @@
         <v>1.1015704638582049</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>1.46951999999997</v>
       </c>
@@ -18437,7 +18450,7 @@
         <v>1.0959792202765561</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>1.47579999999997</v>
       </c>
@@ -18449,7 +18462,7 @@
         <v>1.0903447531700821</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>1.4820799999999701</v>
       </c>
@@ -18461,7 +18474,7 @@
         <v>1.0846672847524201</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>1.4883599999999699</v>
       </c>
@@ -18473,7 +18486,7 @@
         <v>1.0789470389331051</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>1.49463999999997</v>
       </c>
@@ -18485,7 +18498,7 @@
         <v>1.0731842413087378</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>1.5009199999999701</v>
       </c>
@@ -18497,7 +18510,7 @@
         <v>1.0673791191540893</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1.5071999999999699</v>
       </c>
@@ -18509,7 +18522,7 @@
         <v>1.061531901413137</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>1.51347999999997</v>
       </c>
@@ -18521,7 +18534,7 @@
         <v>1.0556428186900348</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1.51975999999997</v>
       </c>
@@ -18533,7 +18546,7 @@
         <v>1.0497121032400194</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>1.5260399999999701</v>
       </c>
@@ -18545,7 +18558,7 @@
         <v>1.0437399889602508</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>1.5323199999999699</v>
       </c>
@@ -18557,7 +18570,7 @@
         <v>1.0377267113805864</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>1.53859999999997</v>
       </c>
@@ -18569,7 +18582,7 @@
         <v>1.031672507654293</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>1.5448799999999701</v>
       </c>
@@ -18581,7 +18594,7 @@
         <v>1.0255776165486945</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>1.5511599999999699</v>
       </c>
@@ -18593,7 +18606,7 @@
         <v>1.0194422784357544</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>1.55743999999998</v>
       </c>
@@ -18605,7 +18618,7 @@
         <v>1.0132667352825859</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>1.56371999999998</v>
       </c>
@@ -18617,7 +18630,7 @@
         <v>1.0070512306419495</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>1.5699999999999801</v>
       </c>
@@ -18629,7 +18642,7 @@
         <v>1.0007960096425879</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>1.5762799999999799</v>
       </c>
@@ -18641,7 +18654,7 @@
         <v>0.99450131897959837</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>1.58255999999998</v>
       </c>
@@ -18653,7 +18666,7 @@
         <v>0.98816740690469296</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>1.58883999999998</v>
       </c>
@@ -18665,7 +18678,7 @@
         <v>0.98179452321640881</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>1.5951199999999801</v>
       </c>
@@ -18677,7 +18690,7 @@
         <v>0.975382919250256</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>1.60139999999998</v>
       </c>
@@ -18689,7 +18702,7 @@
         <v>0.96893284786880562</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>1.60767999999998</v>
       </c>
@@ -18701,7 +18714,7 @@
         <v>0.96244456345171614</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>1.6139599999999801</v>
       </c>
@@ -18713,7 +18726,7 @@
         <v>0.95591832188570325</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>1.6202399999999799</v>
       </c>
@@ -18725,7 +18738,7 @@
         <v>0.94935438055444632</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>1.62651999999998</v>
       </c>
@@ -18737,7 +18750,7 @@
         <v>0.94275299832843829</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>1.63279999999998</v>
       </c>
@@ -18749,7 +18762,7 @@
         <v>0.93611443555477636</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>1.6390799999999801</v>
       </c>
@@ -18761,7 +18774,7 @@
         <v>0.92943895404689392</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>1.6453599999999799</v>
       </c>
@@ -18773,7 +18786,7 @@
         <v>0.92272681707423621</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>1.65163999999998</v>
       </c>
@@ -18785,7 +18798,7 @@
         <v>0.91597828935187542</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>1.6579199999999801</v>
       </c>
@@ -18797,7 +18810,7 @@
         <v>0.90919363703007272</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>1.6641999999999799</v>
       </c>
@@ -18809,7 +18822,7 @@
         <v>0.9023731276837812</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>1.67047999999998</v>
       </c>
@@ -18821,7 +18834,7 @@
         <v>0.89551703030209207</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>1.67675999999998</v>
       </c>
@@ -18833,7 +18846,7 @@
         <v>0.88862561527762796</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>1.6830399999999801</v>
       </c>
@@ -18845,7 +18858,7 @@
         <v>0.88169915439587787</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>1.6893199999999799</v>
       </c>
@@ -18857,7 +18870,7 @@
         <v>0.8747379208244791</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>1.69559999999998</v>
       </c>
@@ -18869,7 +18882,7 @@
         <v>0.86774218910244305</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>1.7018799999999801</v>
       </c>
@@ -18881,7 +18894,7 @@
         <v>0.86071223512932904</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>1.7081599999999799</v>
       </c>
@@ -18893,7 +18906,7 @@
         <v>0.85364833615436297</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>1.71443999999998</v>
       </c>
@@ -18905,7 +18918,7 @@
         <v>0.846550770765502</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>1.72071999999998</v>
       </c>
@@ -18917,7 +18930,7 @@
         <v>0.83941981887844941</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>1.7269999999999801</v>
       </c>
@@ -18929,7 +18942,7 @@
         <v>0.83225576172561377</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>1.7332799999999799</v>
       </c>
@@ -18941,7 +18954,7 @@
         <v>0.82505888184501819</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>1.73955999999998</v>
       </c>
@@ -18953,7 +18966,7 @@
         <v>0.81782946306915716</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>1.7458399999999801</v>
       </c>
@@ -18965,7 +18978,7 @@
         <v>0.81056779051380301</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>1.7521199999999799</v>
       </c>
@@ -18977,7 +18990,7 @@
         <v>0.80327415056676188</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>1.75839999999998</v>
       </c>
@@ -18989,7 +19002,7 @@
         <v>0.79594883087657753</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>1.76467999999998</v>
       </c>
@@ -19001,7 +19014,7 @@
         <v>0.78859212034118875</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>1.7709599999999801</v>
       </c>
@@ -19013,7 +19026,7 @@
         <v>0.78120430909653493</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>1.7772399999999799</v>
       </c>
@@ -19025,7 +19038,7 @@
         <v>0.77378568850511353</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>1.78351999999998</v>
       </c>
@@ -19037,7 +19050,7 @@
         <v>0.76633655114448895</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>1.7897999999999801</v>
       </c>
@@ -19049,7 +19062,7 @@
         <v>0.75885719079575487</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>1.7960799999999799</v>
       </c>
@@ -19061,7 +19074,7 @@
         <v>0.75134790243194705</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>1.80235999999998</v>
       </c>
@@ -19073,7 +19086,7 @@
         <v>0.74380898220641001</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>1.80863999999998</v>
       </c>
@@ -19085,7 +19098,7 @@
         <v>0.73624072744111824</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>1.8149199999999801</v>
       </c>
@@ -19097,7 +19110,7 @@
         <v>0.72864343661494957</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>1.8211999999999799</v>
       </c>
@@ -19109,7 +19122,7 @@
         <v>0.72101740935191394</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>1.82747999999998</v>
       </c>
@@ -19121,7 +19134,7 @@
         <v>0.71336294640933617</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>1.8337599999999801</v>
       </c>
@@ -19133,7 +19146,7 @@
         <v>0.70568034966599547</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>1.8400399999999799</v>
       </c>
@@ -19145,7 +19158,7 @@
         <v>0.69796992211022002</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>1.84631999999998</v>
       </c>
@@ -19157,7 +19170,7 @@
         <v>0.69023196782793561</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>1.85259999999998</v>
       </c>
@@ -19169,7 +19182,7 @@
         <v>0.68246679199067617</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>1.8588799999999801</v>
       </c>
@@ -19181,7 +19194,7 @@
         <v>0.67467470084354553</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>1.8651599999999799</v>
       </c>
@@ -19193,7 +19206,7 @@
         <v>0.66685600169314174</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>1.87143999999998</v>
       </c>
@@ -19205,7 +19218,7 @@
         <v>0.65901100289543524</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>1.8777199999999801</v>
       </c>
@@ -19217,7 +19230,7 @@
         <v>0.65114001384361031</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>1.8839999999999799</v>
       </c>
@@ -19229,7 +19242,7 @@
         <v>0.64324334495586133</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>1.89027999999998</v>
       </c>
@@ -19241,7 +19254,7 @@
         <v>0.63532130766315076</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>1.89655999999998</v>
       </c>
@@ -19253,7 +19266,7 @@
         <v>0.62737421439692753</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>1.9028399999999801</v>
       </c>
@@ -19265,7 +19278,7 @@
         <v>0.61940237857680458</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>1.9091199999999799</v>
       </c>
@@ -19277,7 +19290,7 @@
         <v>0.61140611459819882</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>1.91539999999998</v>
       </c>
@@ -19289,7 +19302,7 @@
         <v>0.60338573781993032</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>1.9216799999999801</v>
       </c>
@@ -19301,7 +19314,7 @@
         <v>0.59534156455178766</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>1.9279599999999799</v>
       </c>
@@ -19313,7 +19326,7 @@
         <v>0.58727391204205115</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>1.93423999999998</v>
       </c>
@@ -19325,7 +19338,7 @@
         <v>0.57918309846498162</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>1.94051999999998</v>
       </c>
@@ -19337,7 +19350,7 @@
         <v>0.57106944290827255</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>1.9467999999999801</v>
       </c>
@@ -19349,7 +19362,7 @@
         <v>0.56293326536046573</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>1.9530799999999799</v>
       </c>
@@ -19361,7 +19374,7 @@
         <v>0.55477488669833153</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>1.95935999999998</v>
       </c>
@@ -19373,7 +19386,7 @@
         <v>0.54659462867421282</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>1.9656399999999801</v>
       </c>
@@ -19385,7 +19398,7 @@
         <v>0.53839281390333771</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>1.9719199999999799</v>
       </c>
@@ -19397,7 +19410,7 @@
         <v>0.5301697658510951</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>1.97819999999998</v>
       </c>
@@ -19409,7 +19422,7 @@
         <v>0.52192580882027673</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>1.98447999999998</v>
       </c>
@@ -19421,7 +19434,7 @@
         <v>0.51366126793828948</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>1.9907599999999801</v>
       </c>
@@ -19433,7 +19446,7 @@
         <v>0.50537646914433132</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>1.9970399999999799</v>
       </c>
@@ -19445,7 +19458,7 @@
         <v>0.49707173917653724</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>2.00331999999998</v>
       </c>
@@ -19457,7 +19470,7 @@
         <v>0.48874740555909274</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>2.0095999999999798</v>
       </c>
@@ -19469,7 +19482,7 @@
         <v>0.48040379658931837</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>2.0158799999999801</v>
       </c>
@@ -19481,7 +19494,7 @@
         <v>0.4720412413247197</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>2.02215999999998</v>
       </c>
@@ -19493,7 +19506,7 @@
         <v>0.4636600695700136</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>2.0284399999999798</v>
       </c>
@@ -19505,7 +19518,7 @@
         <v>0.45526061186411726</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>2.0347199999999801</v>
       </c>
@@ -19517,7 +19530,7 @@
         <v>0.44684319946711426</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>2.0409999999999799</v>
       </c>
@@ -19529,7 +19542,7 @@
         <v>0.43840816434719171</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>2.0472799999999798</v>
       </c>
@@ -19541,7 +19554,7 @@
         <v>0.42995583916754493</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>2.0535599999999801</v>
       </c>
@@ -19553,7 +19566,7 @@
         <v>0.42148655727325895</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>2.0598399999999799</v>
       </c>
@@ -19565,7 +19578,7 @@
         <v>0.41300065267816438</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>2.0661199999999802</v>
       </c>
@@ -19577,7 +19590,7 @@
         <v>0.4044984600516599</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>2.07239999999998</v>
       </c>
@@ -19589,7 +19602,7 @@
         <v>0.39598031470551837</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>2.0786799999999799</v>
       </c>
@@ -19601,7 +19614,7 @@
         <v>0.38744655258065858</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>2.0849599999999802</v>
       </c>
@@ -19613,7 +19626,7 @@
         <v>0.37889751023389784</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>2.09123999999998</v>
       </c>
@@ -19625,7 +19638,7 @@
         <v>0.37033352482468118</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>2.0975199999999798</v>
       </c>
@@ -19637,7 +19650,7 @@
         <v>0.36175493410178006</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>2.1037999999999801</v>
       </c>
@@ -19649,7 +19662,7 @@
         <v>0.3531620763899741</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>2.11007999999998</v>
       </c>
@@ -19661,7 +19674,7 @@
         <v>0.34455529057671053</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>2.1163599999999798</v>
       </c>
@@ -19673,7 +19686,7 @@
         <v>0.33593491609873483</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>2.1226399999999801</v>
       </c>
@@ -19685,7 +19698,7 @@
         <v>0.32730129292870591</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>2.1289199999999799</v>
       </c>
@@ -19697,7 +19710,7 @@
         <v>0.31865476156178973</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>2.1351999999999798</v>
       </c>
@@ -19709,7 +19722,7 @@
         <v>0.30999566300222781</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>2.1414799999999801</v>
       </c>
@@ -19721,7 +19734,7 @@
         <v>0.30132433874988973</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>2.1477599999999799</v>
       </c>
@@ -19733,7 +19746,7 @@
         <v>0.2926411307868072</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>2.1540399999999802</v>
       </c>
@@ -19745,7 +19758,7 @@
         <v>0.28394638156368246</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>2.16031999999998</v>
       </c>
@@ -19757,7 +19770,7 @@
         <v>0.27524043398638753</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>2.1665999999999799</v>
       </c>
@@ -19769,7 +19782,7 @@
         <v>0.26652363140243618</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>2.1728799999999802</v>
       </c>
@@ -19781,7 +19794,7 @@
         <v>0.25779631758744515</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>2.17915999999998</v>
       </c>
@@ -19793,7 +19806,7 @@
         <v>0.24905883673157758</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>2.1854399999999798</v>
       </c>
@@ -19805,7 +19818,7 @@
         <v>0.24031153342596534</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>2.1917199999999699</v>
       </c>
@@ -19817,7 +19830,7 @@
         <v>0.23155475264913494</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>2.1979999999999702</v>
       </c>
@@ -19829,7 +19842,7 @@
         <v>0.22278883975334651</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>2.20427999999997</v>
       </c>
@@ -19841,7 +19854,7 @@
         <v>0.21401414045105782</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>2.2105599999999699</v>
       </c>
@@ -19853,7 +19866,7 @@
         <v>0.20523100080123191</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>2.2168399999999702</v>
       </c>
@@ -19865,7 +19878,7 @@
         <v>0.19643976719570455</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>2.22311999999997</v>
       </c>
@@ -19877,7 +19890,7 @@
         <v>0.18764078634552483</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>2.2293999999999699</v>
       </c>
@@ -19889,7 +19902,7 @@
         <v>0.17883440526727801</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>2.2356799999999701</v>
       </c>
@@ -19901,7 +19914,7 @@
         <v>0.17002097126940163</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>2.24195999999997</v>
       </c>
@@ -19913,7 +19926,7 @@
         <v>0.16120083193848989</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>2.2482399999999698</v>
       </c>
@@ -19925,7 +19938,7 @@
         <v>0.15237433512558196</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>2.2545199999999701</v>
       </c>
@@ -19937,7 +19950,7 @@
         <v>0.14354182893244494</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>2.2607999999999699</v>
       </c>
@@ -19949,7 +19962,7 @@
         <v>0.13470366169784775</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>2.2670799999999698</v>
       </c>
@@ -19961,7 +19974,7 @@
         <v>0.12586018198381865</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>2.2733599999999701</v>
       </c>
@@ -19973,7 +19986,7 @@
         <v>0.11701173856190128</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>2.2796399999999699</v>
       </c>
@@ -19985,7 +19998,7 @@
         <v>0.1081586803994008</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>2.2859199999999702</v>
       </c>
@@ -19997,7 +20010,7 @@
         <v>9.93013566456179E-2</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>2.29219999999997</v>
       </c>
@@ -20009,7 +20022,7 @@
         <v>9.0440116618082489E-2</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>2.2984799999999699</v>
       </c>
@@ -20021,7 +20034,7 @@
         <v>8.1575309788774475E-2</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>2.3047599999999702</v>
       </c>
@@ -20033,7 +20046,7 @@
         <v>7.2707285770341468E-2</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>2.31103999999997</v>
       </c>
@@ -20045,7 +20058,7 @@
         <v>6.3836394302314026E-2</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>2.3173199999999698</v>
       </c>
@@ -20057,7 +20070,7 @@
         <v>5.4962985237307693E-2</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>2.3235999999999701</v>
       </c>
@@ -20069,7 +20082,7 @@
         <v>4.6087408527227924E-2</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>2.32987999999997</v>
       </c>
@@ -20081,7 +20094,7 @@
         <v>3.7210014209469899E-2</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>2.3361599999999698</v>
       </c>
@@ -20093,7 +20106,7 @@
         <v>2.8331152393110459E-2</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>2.3424399999999701</v>
       </c>
@@ -20105,7 +20118,7 @@
         <v>1.9451173245101927E-2</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>2.3487199999999699</v>
       </c>
@@ -20117,7 +20130,7 @@
         <v>1.0570426976464375E-2</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>2.3549999999999698</v>
       </c>
@@ -20129,7 +20142,7 @@
         <v>1.6892638284696782E-3</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>2.3612799999999701</v>
       </c>
@@ -20141,7 +20154,7 @@
         <v>-7.1919659411693315E-3</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>2.3675599999999699</v>
       </c>
@@ -20153,7 +20166,7 @@
         <v>-1.6072912072110257E-2</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>2.3738399999999702</v>
       </c>
@@ -20165,7 +20178,7 @@
         <v>-2.4953224315199862E-2</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>2.38011999999997</v>
       </c>
@@ -20177,7 +20190,7 @@
         <v>-3.3832552446281139E-2</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>2.3863999999999699</v>
       </c>
@@ -20189,7 +20202,7 @@
         <v>-4.2710546280011252E-2</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>2.3926799999999702</v>
       </c>
@@ -20201,7 +20214,7 @@
         <v>-5.1586855683669497E-2</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>2.39895999999997</v>
       </c>
@@ -20213,7 +20226,7 @@
         <v>-6.0461130590964363E-2</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>2.4052399999999698</v>
       </c>
@@ -20225,7 +20238,7 @@
         <v>-6.9333021015843377E-2</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>2.4115199999999701</v>
       </c>
@@ -20237,7 +20250,7 @@
         <v>-7.820217706629351E-2</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>2.41779999999997</v>
       </c>
@@ -20249,7 +20262,7 @@
         <v>-8.7068248958139249E-2</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>2.4240799999999698</v>
       </c>
@@ -20261,7 +20274,7 @@
         <v>-9.5930887028840561E-2</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>2.4303599999999701</v>
       </c>
@@ -20273,7 +20286,7 @@
         <v>-0.10478974175128186</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>2.4366399999999699</v>
       </c>
@@ -20285,7 +20298,7 @@
         <v>-0.11364446374755355</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>2.4429199999999698</v>
       </c>
@@ -20297,7 +20310,7 @@
         <v>-0.12249470380273642</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>2.4491999999999701</v>
       </c>
@@ -20309,7 +20322,7 @@
         <v>-0.13134011287867065</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>2.4554799999999699</v>
       </c>
@@ -20321,7 +20334,7 @@
         <v>-0.14018034212772013</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>2.4617599999999702</v>
       </c>
@@ -20333,7 +20346,7 @@
         <v>-0.14901504290653489</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>2.46803999999997</v>
       </c>
@@ -20345,7 +20358,7 @@
         <v>-0.15784386678979545</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>2.4743199999999699</v>
       </c>
@@ -20357,7 +20370,7 @@
         <v>-0.16666646558395914</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>2.4805999999999702</v>
       </c>
@@ -20369,7 +20382,7 @@
         <v>-0.17548249134098959</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>2.48687999999997</v>
       </c>
@@ -20381,7 +20394,7 @@
         <v>-0.18429159637207815</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>2.4931599999999698</v>
       </c>
@@ -20393,7 +20406,7 @@
         <v>-0.19309343326135942</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>2.4994399999999701</v>
       </c>
@@ -20405,7 +20418,7 @@
         <v>-0.2018876548796108</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>2.50571999999997</v>
       </c>
@@ -20417,7 +20430,7 @@
         <v>-0.21067391439794114</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>2.5119999999999698</v>
       </c>
@@ -20429,7 +20442,7 @@
         <v>-0.21945186530147254</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>2.5182799999999701</v>
       </c>
@@ -20441,7 +20454,7 @@
         <v>-0.22822116140300441</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>2.5245599999999699</v>
       </c>
@@ -20453,7 +20466,7 @@
         <v>-0.23698145685666472</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>2.5308399999999698</v>
       </c>
@@ -20465,7 +20478,7 @@
         <v>-0.24573240617155345</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>2.5371199999999701</v>
       </c>
@@ -20477,7 +20490,7 @@
         <v>-0.25447366422536599</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>2.5433999999999699</v>
       </c>
@@ -20489,7 +20502,7 @@
         <v>-0.26320488627800231</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>2.5496799999999702</v>
       </c>
@@ -20501,7 +20514,7 @@
         <v>-0.27192572798516779</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>2.55595999999997</v>
       </c>
@@ -20513,7 +20526,7 @@
         <v>-0.28063584541194786</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>2.5622399999999699</v>
       </c>
@@ -20525,7 +20538,7 @@
         <v>-0.28933489504637688</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>2.5685199999999702</v>
       </c>
@@ -20537,7 +20550,7 @@
         <v>-0.29802253381298405</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>2.57479999999997</v>
       </c>
@@ -20549,7 +20562,7 @@
         <v>-0.30669841908632134</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>2.5810799999999698</v>
       </c>
@@ -20561,7 +20574,7 @@
         <v>-0.31536220870448028</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>2.5873599999999599</v>
       </c>
@@ -20573,7 +20586,7 @@
         <v>-0.32401356098256984</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>2.5936399999999602</v>
       </c>
@@ -20585,7 +20598,7 @@
         <v>-0.33265213472624711</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>2.59991999999996</v>
       </c>
@@ -20597,7 +20610,7 @@
         <v>-0.34127758924509044</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>2.6061999999999599</v>
       </c>
@@ -20609,7 +20622,7 @@
         <v>-0.34988958436609285</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>2.6124799999999602</v>
       </c>
@@ -20621,7 +20634,7 @@
         <v>-0.35848778044706309</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>2.61875999999996</v>
       </c>
@@ -20633,7 +20646,7 @@
         <v>-0.36707183839001778</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>2.6250399999999598</v>
       </c>
@@ -20645,7 +20658,7 @@
         <v>-0.37564141965455944</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>2.6313199999999601</v>
       </c>
@@ -20657,7 +20670,7 @@
         <v>-0.38419618627122581</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>2.63759999999996</v>
       </c>
@@ -20669,7 +20682,7 @@
         <v>-0.39273580085481669</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>2.6438799999999598</v>
       </c>
@@ -20681,7 +20694,7 @@
         <v>-0.40125992661770371</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>2.6501599999999601</v>
       </c>
@@ -20693,7 +20706,7 @@
         <v>-0.40976822738311097</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>2.6564399999999599</v>
       </c>
@@ -20705,7 +20718,7 @@
         <v>-0.4182603675983711</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>2.6627199999999598</v>
       </c>
@@ -20717,7 +20730,7 @@
         <v>-0.42673601234816272</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>2.6689999999999601</v>
       </c>
@@ -20729,7 +20742,7 @@
         <v>-0.43519482736771709</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>2.6752799999999599</v>
       </c>
@@ -20741,7 +20754,7 @@
         <v>-0.44363647905599923</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>2.6815599999999602</v>
       </c>
@@ -20753,7 +20766,7 @@
         <v>-0.45206063448886846</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>2.68783999999996</v>
       </c>
@@ -20765,7 +20778,7 @@
         <v>-0.46046696143220389</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>2.6941199999999599</v>
       </c>
@@ -20777,7 +20790,7 @@
         <v>-0.46885512835501131</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>2.7003999999999602</v>
       </c>
@@ -20789,7 +20802,7 @@
         <v>-0.47722480444249593</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>2.70667999999996</v>
       </c>
@@ -20801,7 +20814,7 @@
         <v>-0.48557565960910826</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>2.7129599999999598</v>
       </c>
@@ -20813,7 +20826,7 @@
         <v>-0.49390736451156464</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>2.7192399999999601</v>
       </c>
@@ -20825,7 +20838,7 @@
         <v>-0.50221959056183518</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>2.72551999999996</v>
       </c>
@@ -20837,7 +20850,7 @@
         <v>-0.51051200994010015</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>2.7317999999999598</v>
       </c>
@@ -20849,7 +20862,7 @@
         <v>-0.51878429560768247</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>2.7380799999999601</v>
       </c>
@@ -20861,7 +20874,7 @@
         <v>-0.52703612131994393</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>2.7443599999999599</v>
       </c>
@@ -20873,7 +20886,7 @@
         <v>-0.53526716163914978</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>2.7506399999999598</v>
       </c>
@@ -20885,7 +20898,7 @@
         <v>-0.54347709194730709</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>2.7569199999999601</v>
       </c>
@@ -20897,7 +20910,7 @@
         <v>-0.55166558845896474</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>2.7631999999999599</v>
       </c>
@@ -20909,7 +20922,7 @@
         <v>-0.55983232823398232</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>2.7694799999999602</v>
       </c>
@@ -20921,7 +20934,7 @@
         <v>-0.56797698919026973</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>2.77575999999996</v>
       </c>
@@ -20933,7 +20946,7 @@
         <v>-0.57609925011648455</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>2.7820399999999599</v>
       </c>
@@ -20945,7 +20958,7 @@
         <v>-0.58419879068470493</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>2.7883199999999602</v>
       </c>
@@ -20957,7 +20970,7 @@
         <v>-0.59227529146306057</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>2.79459999999996</v>
       </c>
@@ -20969,7 +20982,7 @@
         <v>-0.6003284339283288</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>2.8008799999999598</v>
       </c>
@@ -20981,7 +20994,7 @@
         <v>-0.60835790047850025</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>2.8071599999999601</v>
       </c>
@@ -20993,7 +21006,7 @@
         <v>-0.61636337444530276</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>2.81343999999996</v>
       </c>
@@ -21005,7 +21018,7 @@
         <v>-0.62434454010668805</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>2.8197199999999598</v>
       </c>
@@ -21017,7 +21030,7 @@
         <v>-0.63230108269928742</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>2.8259999999999601</v>
       </c>
@@ -21029,7 +21042,7 @@
         <v>-0.64023268843082348</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>2.8322799999999599</v>
       </c>
@@ -21041,7 +21054,7 @@
         <v>-0.64813904449248372</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>2.8385599999999598</v>
       </c>
@@ -21053,7 +21066,7 @@
         <v>-0.65601983907126038</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>2.8448399999999601</v>
       </c>
@@ -21065,7 +21078,7 @@
         <v>-0.66387476136224666</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>2.8511199999999599</v>
       </c>
@@ -21077,7 +21090,7 @@
         <v>-0.67170350158089231</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>2.8573999999999602</v>
       </c>
@@ -21089,7 +21102,7 @@
         <v>-0.67950575097522492</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>2.86367999999996</v>
       </c>
@@ -21101,7 +21114,7 @@
         <v>-0.6872812018380221</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>2.8699599999999599</v>
       </c>
@@ -21113,7 +21126,7 @@
         <v>-0.69502954751895096</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>2.8762399999999602</v>
       </c>
@@ -21125,7 +21138,7 @@
         <v>-0.70275048243666016</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>2.88251999999996</v>
       </c>
@@ -21137,7 +21150,7 @@
         <v>-0.71044370209082963</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>2.8887999999999598</v>
       </c>
@@ -21149,7 +21162,7 @@
         <v>-0.71810890307418296</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>2.8950799999999601</v>
       </c>
@@ -21161,7 +21174,7 @@
         <v>-0.72574578308445192</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>2.90135999999996</v>
       </c>
@@ -21173,7 +21186,7 @@
         <v>-0.73335404093629653</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>2.9076399999999598</v>
       </c>
@@ -21185,7 +21198,7 @@
         <v>-0.74093337657318703</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>2.9139199999999601</v>
       </c>
@@ -21197,7 +21210,7 @@
         <v>-0.74848349107923595</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>2.9201999999999599</v>
       </c>
@@ -21209,7 +21222,7 @@
         <v>-0.75600408669098473</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>2.9264799999999598</v>
       </c>
@@ -21221,7 +21234,7 @@
         <v>-0.7634948668091508</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>2.9327599999999601</v>
       </c>
@@ -21233,7 +21246,7 @@
         <v>-0.77095553601032296</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>2.9390399999999599</v>
       </c>
@@ -21245,7 +21258,7 @@
         <v>-0.7783858000586108</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>2.9453199999999602</v>
       </c>
@@ -21257,7 +21270,7 @@
         <v>-0.78578536591725312</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>2.95159999999996</v>
       </c>
@@ -21269,7 +21282,7 @@
         <v>-0.79315394176016962</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>2.9578799999999599</v>
       </c>
@@ -21281,7 +21294,7 @@
         <v>-0.80049123698347424</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>2.9641599999999602</v>
       </c>
@@ -21293,7 +21306,7 @@
         <v>-0.80779696221693498</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>2.97043999999996</v>
       </c>
@@ -21305,7 +21318,7 @@
         <v>-0.81507082933538344</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>2.9767199999999598</v>
       </c>
@@ -21317,7 +21330,7 @@
         <v>-0.82231255147008187</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>2.9829999999999499</v>
       </c>
@@ -21329,7 +21342,7 @@
         <v>-0.82952184302002374</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>2.9892799999999502</v>
       </c>
@@ -21341,7 +21354,7 @@
         <v>-0.83669841966324243</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>2.99555999999995</v>
       </c>
@@ -21353,7 +21366,7 @@
         <v>-0.8438419983679557</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>3.0018399999999499</v>
       </c>
@@ -21365,7 +21378,7 @@
         <v>-0.85095229740377532</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>3.0081199999999502</v>
       </c>
@@ -21377,7 +21390,7 @@
         <v>-0.85802903635280614</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>3.01439999999995</v>
       </c>
@@ -21389,7 +21402,7 @@
         <v>-0.86507193612070299</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>3.0206799999999498</v>
       </c>
@@ -21401,7 +21414,7 @@
         <v>-0.87208071894768102</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>3.0269599999999501</v>
       </c>
@@ -21413,7 +21426,7 @@
         <v>-0.87905510841946843</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>3.03323999999995</v>
       </c>
@@ -21425,7 +21438,7 @@
         <v>-0.88599482947820674</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>3.0395199999999498</v>
       </c>
@@ -21437,7 +21450,7 @@
         <v>-0.89289960843330063</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>3.0457999999999501</v>
       </c>
@@ -21449,7 +21462,7 @@
         <v>-0.89976917297221148</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>3.0520799999999499</v>
       </c>
@@ -21461,7 +21474,7 @@
         <v>-0.90660325217119442</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>3.0583599999999498</v>
       </c>
@@ -21473,7 +21486,7 @@
         <v>-0.91340157650598675</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>3.0646399999999501</v>
       </c>
@@ -21485,7 +21498,7 @@
         <v>-0.92016387786243548</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>3.0709199999999499</v>
       </c>
@@ -21497,7 +21510,7 @@
         <v>-0.92688988954707074</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>3.0771999999999502</v>
       </c>
@@ -21509,7 +21522,7 @@
         <v>-0.93357934629762562</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>3.08347999999995</v>
       </c>
@@ -21521,7 +21534,7 @@
         <v>-0.9402319842934953</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>3.0897599999999499</v>
       </c>
@@ -21533,7 +21546,7 @@
         <v>-0.94684754116614434</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>3.0960399999999502</v>
       </c>
@@ -21545,7 +21558,7 @@
         <v>-0.95342575600945234</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>3.10231999999995</v>
       </c>
@@ -21557,7 +21570,7 @@
         <v>-0.95996636939000279</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>3.1085999999999498</v>
       </c>
@@ -21569,7 +21582,7 @@
         <v>-0.96646912335731716</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>3.1148799999999501</v>
       </c>
@@ -21581,7 +21594,7 @@
         <v>-0.97293376145402655</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>3.12115999999995</v>
       </c>
@@ -21593,7 +21606,7 @@
         <v>-0.97936002872598527</v>
       </c>
     </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>3.1274399999999498</v>
       </c>
@@ -21605,7 +21618,7 @@
         <v>-0.98574767173232702</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>3.1337199999999501</v>
       </c>
@@ -21617,7 +21630,7 @@
         <v>-0.99209643855546059</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>3.1399999999999499</v>
       </c>
@@ -21638,9 +21651,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
